--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,12 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE357366-76A0-854B-A814-8DC9445D7564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="680" yWindow="460" windowWidth="37720" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,17 +45,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -47,36 +73,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -266,20 +301,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -293,7 +333,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="2">
+        <v>44811</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.99861111111111101</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2-B2</f>
+        <v>9.7222222222222099E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE357366-76A0-854B-A814-8DC9445D7564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD27DE-20D5-FF40-B2B3-4319C5244DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="37720" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -40,13 +40,17 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022/9/10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -65,6 +69,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,11 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -311,10 +323,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -348,6 +360,36 @@
         <v>9.7222222222222099E-2</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.86944444444444446</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3-B3</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>44815</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4-B4</f>
+        <v>4.861111111111116E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD27DE-20D5-FF40-B2B3-4319C5244DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B1DD77-7604-7A45-B00D-B5F14DD81911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="37720" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,10 +323,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -390,6 +390,21 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>44821</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.94166666666666676</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5-B5</f>
+        <v>6.6666666666666763E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B1DD77-7604-7A45-B00D-B5F14DD81911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB55AD08-80B5-6347-A6CB-2316AB042E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="37720" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,10 +323,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -405,6 +405,21 @@
         <v>6.6666666666666763E-2</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6-B6</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB55AD08-80B5-6347-A6CB-2316AB042E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA24DE-468F-9843-8BB5-DC9B537ACD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="37720" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,10 +323,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -420,6 +420,21 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-B7</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA24DE-468F-9843-8BB5-DC9B537ACD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBA642A-953F-2F49-AA84-64B31C8BD6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="37720" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,10 +323,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -356,7 +356,7 @@
         <v>0.99861111111111101</v>
       </c>
       <c r="D2" s="3">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D8" si="0">C2-B2</f>
         <v>9.7222222222222099E-2</v>
       </c>
     </row>
@@ -371,7 +371,7 @@
         <v>0.86944444444444446</v>
       </c>
       <c r="D3" s="3">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
     </row>
@@ -386,7 +386,7 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
     </row>
@@ -401,7 +401,7 @@
         <v>0.94166666666666676</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666763E-2</v>
       </c>
     </row>
@@ -416,7 +416,7 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
@@ -431,8 +431,23 @@
         <v>0.98611111111111116</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>9.7916666666666652E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Research Proposal\Y3, Manuscript 1 TM\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBA642A-953F-2F49-AA84-64B31C8BD6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F1C0F6-734E-4D19-9FE7-36B899EE9B5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="37720" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +36,9 @@
   <si>
     <t xml:space="preserve"> 2022/9/10</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 hours 137 mins = 10.28hours*1500NTD =15420</t>
   </si>
 </sst>
 </file>
@@ -323,13 +318,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -448,6 +443,11 @@
       <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>9.7916666666666652E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Research Proposal\Y3, Manuscript 1 TM\Fortune500_SDG_Analysis\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F1C0F6-734E-4D19-9FE7-36B899EE9B5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC124FD-2BA3-BA40-BCD3-2822C9CB6C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="37720" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -318,13 +326,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -448,6 +456,21 @@
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="D9" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-B10</f>
+        <v>0.15416666666666662</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC124FD-2BA3-BA40-BCD3-2822C9CB6C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B522E0C3-FE74-D647-BA84-1D30DF027690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="37720" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,10 +326,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -473,6 +473,21 @@
         <v>0.15416666666666662</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-B11</f>
+        <v>6.944444444444442E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B522E0C3-FE74-D647-BA84-1D30DF027690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3C5C17-3419-4B49-A6C3-1DB08EF76202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="37720" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="37700" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,10 +326,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -488,6 +488,21 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="2">
+        <v>44842</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-B12</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3C5C17-3419-4B49-A6C3-1DB08EF76202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9210B-1366-EE48-B4EF-71DDDA8C56A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="37700" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,10 +326,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -503,6 +503,21 @@
         <v>6.25E-2</v>
       </c>
     </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="2">
+        <v>44843</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13-B13</f>
+        <v>6.5972222222222099E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9210B-1366-EE48-B4EF-71DDDA8C56A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D3FD14-C560-1C43-9761-F04C7CC347D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="37700" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,10 +326,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -518,6 +518,21 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="2">
+        <v>44856</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.97152777777777777</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14-B14</f>
+        <v>3.8194444444444531E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D3FD14-C560-1C43-9761-F04C7CC347D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEBB5D9-2BF6-2646-A882-0FB1B5607381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="37700" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,10 +326,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -533,6 +533,21 @@
         <v>3.8194444444444531E-2</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="2">
+        <v>44857</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-B15</f>
+        <v>7.4999999999999956E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEBB5D9-2BF6-2646-A882-0FB1B5607381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFA9929-A688-C44A-AA37-439AAFCF1C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="37700" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,10 +326,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -469,7 +469,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-B10</f>
+        <f t="shared" ref="D10:D16" si="1">C10-B10</f>
         <v>0.15416666666666662</v>
       </c>
     </row>
@@ -484,7 +484,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-B11</f>
+        <f t="shared" si="1"/>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -499,7 +499,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="D12" s="3">
-        <f>C12-B12</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -514,7 +514,7 @@
         <v>0.77430555555555547</v>
       </c>
       <c r="D13" s="3">
-        <f>C13-B13</f>
+        <f t="shared" si="1"/>
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
@@ -529,7 +529,7 @@
         <v>0.97152777777777777</v>
       </c>
       <c r="D14" s="3">
-        <f>C14-B14</f>
+        <f t="shared" si="1"/>
         <v>3.8194444444444531E-2</v>
       </c>
     </row>
@@ -544,8 +544,23 @@
         <v>0.78333333333333333</v>
       </c>
       <c r="D15" s="3">
-        <f>C15-B15</f>
+        <f t="shared" si="1"/>
         <v>7.4999999999999956E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="2">
+        <v>44863</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="1"/>
+        <v>4.3750000000000011E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFA9929-A688-C44A-AA37-439AAFCF1C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F94FF-6956-7149-B71B-8A46EF5F481E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="37700" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,10 +326,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -469,7 +469,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D16" si="1">C10-B10</f>
+        <f t="shared" ref="D10:D17" si="1">C10-B10</f>
         <v>0.15416666666666662</v>
       </c>
     </row>
@@ -561,6 +561,21 @@
       <c r="D16" s="3">
         <f t="shared" si="1"/>
         <v>4.3750000000000011E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="2">
+        <v>44863</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
+        <v>5.1388888888888817E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F94FF-6956-7149-B71B-8A46EF5F481E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6F6D2-CE92-364C-8233-282F151CADD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="37700" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,12 +102,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -326,10 +327,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -469,7 +470,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D17" si="1">C10-B10</f>
+        <f t="shared" ref="D10:D18" si="1">C10-B10</f>
         <v>0.15416666666666662</v>
       </c>
     </row>
@@ -576,6 +577,21 @@
       <c r="D17" s="3">
         <f t="shared" si="1"/>
         <v>5.1388888888888817E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="2">
+        <v>44863</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
+        <v>8.1249999999999933E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F6F6D2-CE92-364C-8233-282F151CADD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6507636-5F86-BA48-BE30-A7886D6B48C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="37700" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -48,12 +48,16 @@
   <si>
     <t>8 hours 137 mins = 10.28hours*1500NTD =15420</t>
   </si>
+  <si>
+    <t>10 hours 324 mins = 15.4hours*1500 NTD =23100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -81,6 +85,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,13 +113,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -327,10 +339,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -470,7 +482,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D18" si="1">C10-B10</f>
+        <f t="shared" ref="D10:D20" si="1">C10-B10</f>
         <v>0.15416666666666662</v>
       </c>
     </row>
@@ -592,6 +604,26 @@
       <c r="D18" s="3">
         <f t="shared" si="1"/>
         <v>8.1249999999999933E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D19" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="2">
+        <v>44868</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.94305555555555554</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
+        <v>4.7222222222222165E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6507636-5F86-BA48-BE30-A7886D6B48C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7871761E-36B2-8442-B17A-0593B050340A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="37700" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,10 +339,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -482,7 +482,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D20" si="1">C10-B10</f>
+        <f t="shared" ref="D10:D21" si="1">C10-B10</f>
         <v>0.15416666666666662</v>
       </c>
     </row>
@@ -624,6 +624,21 @@
       <c r="D20" s="3">
         <f t="shared" si="1"/>
         <v>4.7222222222222165E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="2">
+        <v>44869</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/KnowThyself/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7871761E-36B2-8442-B17A-0593B050340A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC7C649-B7C9-8C46-B054-1E31E7B3D08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="37700" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="28280" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -121,6 +121,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -339,10 +340,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -482,7 +483,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D21" si="1">C10-B10</f>
+        <f t="shared" ref="D10:D22" si="1">C10-B10</f>
         <v>0.15416666666666662</v>
       </c>
     </row>
@@ -639,6 +640,21 @@
       <c r="D21" s="3">
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="2">
+        <v>44870</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1.0027777777777778</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>8.6111111111111138E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/KnowThyself/2022-09-07/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/2022-09-07/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC7C649-B7C9-8C46-B054-1E31E7B3D08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3257F4-9399-8544-AD18-A7C09F2D9887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="28280" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="28280" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,10 +340,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -483,7 +483,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D22" si="1">C10-B10</f>
+        <f t="shared" ref="D10:D23" si="1">C10-B10</f>
         <v>0.15416666666666662</v>
       </c>
     </row>
@@ -655,6 +655,21 @@
       <c r="D22" s="3">
         <f t="shared" si="1"/>
         <v>8.6111111111111138E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="2">
+        <v>44871</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>8.8888888888888906E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/KnowThyself/2022-09-07/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC7C649-B7C9-8C46-B054-1E31E7B3D08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F59D08E-83BE-4AE8-AB62-2246A58E7F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="460" windowWidth="28280" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -340,13 +332,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -483,7 +475,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D22" si="1">C10-B10</f>
+        <f t="shared" ref="D10:D23" si="1">C10-B10</f>
         <v>0.15416666666666662</v>
       </c>
     </row>
@@ -655,6 +647,21 @@
       <c r="D22" s="3">
         <f t="shared" si="1"/>
         <v>8.6111111111111138E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>7.0833333333333304E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andy 1/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F59D08E-83BE-4AE8-AB62-2246A58E7F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC27B1B-22EA-5C43-BB0F-AED3D5563D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="28280" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9040" yWindow="460" windowWidth="28220" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -332,13 +340,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -475,7 +483,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D23" si="1">C10-B10</f>
+        <f t="shared" ref="D10:D24" si="1">C10-B10</f>
         <v>0.15416666666666662</v>
       </c>
     </row>
@@ -651,15 +659,30 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="2">
+        <v>44871</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="1"/>
+        <v>8.8888888888888906E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="2">
         <v>44977</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>0.75</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>0.8208333333333333</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="3">
         <f t="shared" si="1"/>
         <v>7.0833333333333304E-2</v>
       </c>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andy 1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC27B1B-22EA-5C43-BB0F-AED3D5563D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308AD1A5-A5C1-416F-BE9F-98FE373317E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="460" windowWidth="28220" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +43,9 @@
   <si>
     <t>10 hours 324 mins = 15.4hours*1500 NTD =23100</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8hr 2 mins =8.03 hr*1500=12045NTD</t>
   </si>
 </sst>
 </file>
@@ -340,13 +335,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -685,6 +680,11 @@
       <c r="D24" s="3">
         <f t="shared" si="1"/>
         <v>7.0833333333333304E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D25" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308AD1A5-A5C1-416F-BE9F-98FE373317E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42359576-1FDE-4BE9-A198-510CFE230E0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="460" windowWidth="28220" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8hr 2 mins =8.03 hr*1500=12045NTD</t>
+    <t>8hr 2 mins =8.03 hr*1500=12045NTD (paid)</t>
   </si>
 </sst>
 </file>
@@ -335,10 +335,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -687,6 +687,36 @@
         <v>7</v>
       </c>
     </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D26" s="3">
+        <f>C26-B26</f>
+        <v>0.10416666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D27" s="3">
+        <f>C27-B27</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/4_teaching/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42359576-1FDE-4BE9-A198-510CFE230E0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9BB259-96A5-1342-B900-8ECE7EE06A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="460" windowWidth="28220" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -335,13 +343,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -715,6 +723,21 @@
       <c r="D27" s="3">
         <f>C27-B27</f>
         <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="2">
+        <v>45004</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.84305555555555556</v>
+      </c>
+      <c r="D28" s="3">
+        <f>C28-B28</f>
+        <v>9.3055555555555558E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/4_teaching/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9BB259-96A5-1342-B900-8ECE7EE06A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ABF391-B686-4E2F-8730-7FA809E3F536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -343,13 +335,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -738,6 +730,11 @@
       <c r="D28" s="3">
         <f>C28-B28</f>
         <v>9.3055555555555558E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="2">
+        <v>45011</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/4_teaching/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ABF391-B686-4E2F-8730-7FA809E3F536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1063F4C6-212B-0B46-98D5-2B6056D6C283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -338,10 +346,10 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -735,6 +743,16 @@
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>45011</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="D29" s="3">
+        <f>C29-B29</f>
+        <v>9.1666666666666563E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/4_teaching/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1063F4C6-212B-0B46-98D5-2B6056D6C283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29DDACF-72D5-F54F-961D-BA8817301915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,10 +343,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -755,6 +755,21 @@
         <v>9.1666666666666563E-2</v>
       </c>
     </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D30" s="3">
+        <f>C30-B30</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/4_teaching/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1063F4C6-212B-0B46-98D5-2B6056D6C283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FA68A5-8442-4CD6-A442-F9D26167DF98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +46,9 @@
   </si>
   <si>
     <t>8hr 2 mins =8.03 hr*1500=12045NTD (paid)</t>
+  </si>
+  <si>
+    <t>11.22hr*1500=16830NTD</t>
   </si>
 </sst>
 </file>
@@ -343,13 +338,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -580,7 +575,7 @@
         <v>4.3750000000000011E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>44863</v>
       </c>
@@ -595,7 +590,7 @@
         <v>5.1388888888888817E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>44863</v>
       </c>
@@ -610,12 +605,12 @@
         <v>8.1249999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>44868</v>
       </c>
@@ -630,7 +625,7 @@
         <v>4.7222222222222165E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>44869</v>
       </c>
@@ -645,7 +640,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>44870</v>
       </c>
@@ -660,7 +655,7 @@
         <v>8.6111111111111138E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>44871</v>
       </c>
@@ -675,7 +670,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>44977</v>
       </c>
@@ -690,12 +685,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>44991</v>
       </c>
@@ -710,7 +705,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>44994</v>
       </c>
@@ -725,7 +720,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>45004</v>
       </c>
@@ -740,7 +735,7 @@
         <v>9.3055555555555558E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>45011</v>
       </c>
@@ -753,6 +748,35 @@
       <c r="D29" s="3">
         <f>C29-B29</f>
         <v>9.1666666666666563E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.80347222222222225</v>
+      </c>
+      <c r="D30" s="3">
+        <f>C30-B30</f>
+        <v>9.5138888888888884E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D31" s="3">
+        <f>SUM(D26:D30)</f>
+        <v>0.46736111111111101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="2">
+        <v>45032</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FA68A5-8442-4CD6-A442-F9D26167DF98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54A4A37-8BCC-45C5-B303-802E0D37C306}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/4_teaching/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54A4A37-8BCC-45C5-B303-802E0D37C306}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB174C2-54F9-B547-8EE0-9E6EB6B903C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -341,10 +349,10 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -777,6 +785,16 @@
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>45032</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D32" s="3">
+        <f>C32-B32</f>
+        <v>6.944444444444442E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/4_teaching/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB174C2-54F9-B547-8EE0-9E6EB6B903C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A237DD-784C-B44C-B4B6-1752B2A1990C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,10 +346,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -797,6 +797,21 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D33" s="3">
+        <f>C33-B33</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/4_teaching/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB174C2-54F9-B547-8EE0-9E6EB6B903C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10A2E0B-B504-4D37-BE6B-6A2171C7411E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -56,7 +48,7 @@
     <t>8hr 2 mins =8.03 hr*1500=12045NTD (paid)</t>
   </si>
   <si>
-    <t>11.22hr*1500=16830NTD</t>
+    <t>11.22hr*1500=16830NTD (paid)</t>
   </si>
 </sst>
 </file>
@@ -346,13 +338,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -795,6 +787,21 @@
       <c r="D32" s="3">
         <f>C32-B32</f>
         <v>6.944444444444442E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.81527777777777777</v>
+      </c>
+      <c r="D33" s="3">
+        <f>C33-B33</f>
+        <v>9.9999999999999978E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/4_teaching/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C14AC7E-AD88-FA4D-B622-79ECBF9E5F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A1616F-E034-4AE6-B389-720CCB48C43D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -56,7 +48,7 @@
     <t>8hr 2 mins =8.03 hr*1500=12045NTD (paid)</t>
   </si>
   <si>
-    <t>11.22hr*1500=16830NTD</t>
+    <t>11.22hr*1500=16830NTD (paid)</t>
   </si>
 </sst>
 </file>
@@ -349,10 +341,10 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/4_teaching/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A1616F-E034-4AE6-B389-720CCB48C43D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DAF85-D37E-B640-9F63-F92BF40E0A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -338,13 +346,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -817,6 +825,21 @@
       <c r="D34" s="3">
         <f>C34-B34</f>
         <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" s="2">
+        <v>45060</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.81111111111111101</v>
+      </c>
+      <c r="D35" s="3">
+        <f>C35-B35</f>
+        <v>0.10277777777777763</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/4_teaching/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DAF85-D37E-B640-9F63-F92BF40E0A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C78950-8707-DF42-9291-8368C87E98D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,10 +346,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -842,6 +842,21 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A36" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D36" s="3">
+        <f>C36-B36</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA3T/4_teaching/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/buffalo/4_teaching/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C78950-8707-DF42-9291-8368C87E98D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F616426-8870-6942-96ED-8E198CE93F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="500" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,10 +346,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -857,6 +857,21 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A37" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="D37" s="3">
+        <f>C37-B37</f>
+        <v>5.555555555555558E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/buffalo/4_teaching/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F616426-8870-6942-96ED-8E198CE93F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6408EBC0-D3A8-400A-BE6C-DE67F6223C41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +49,9 @@
   </si>
   <si>
     <t>11.22hr*1500=16830NTD (paid)</t>
+  </si>
+  <si>
+    <t>10 hour 214 min =13.57 hr *1500 =20355</t>
   </si>
 </sst>
 </file>
@@ -119,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -128,6 +123,7 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -346,13 +342,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -793,7 +789,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f>C32-B32</f>
+        <f t="shared" ref="D32:D38" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -808,7 +804,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="D33" s="3">
-        <f>C33-B33</f>
+        <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
     </row>
@@ -823,7 +819,7 @@
         <v>0.81527777777777777</v>
       </c>
       <c r="D34" s="3">
-        <f>C34-B34</f>
+        <f t="shared" si="2"/>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
@@ -838,7 +834,7 @@
         <v>0.81111111111111101</v>
       </c>
       <c r="D35" s="3">
-        <f>C35-B35</f>
+        <f t="shared" si="2"/>
         <v>0.10277777777777763</v>
       </c>
     </row>
@@ -853,7 +849,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D36" s="3">
-        <f>C36-B36</f>
+        <f t="shared" si="2"/>
         <v>7.291666666666663E-2</v>
       </c>
     </row>
@@ -868,8 +864,28 @@
         <v>0.80763888888888891</v>
       </c>
       <c r="D37" s="3">
-        <f>C37-B37</f>
+        <f t="shared" si="2"/>
         <v>5.555555555555558E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A38" s="8">
+        <v>45096</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="2"/>
+        <v>7.0833333333333304E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D39" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6408EBC0-D3A8-400A-BE6C-DE67F6223C41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166483D4-F702-4AE0-866A-983CF28ECF9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,8 +344,8 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166483D4-F702-4AE0-866A-983CF28ECF9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541882A7-A459-41CC-81D9-C209B2B02AD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>11.22hr*1500=16830NTD (paid)</t>
   </si>
   <si>
-    <t>10 hour 214 min =13.57 hr *1500 =20355</t>
+    <t>10 hour 214 min =13.57 hr *1500 =20355 (paid)</t>
   </si>
 </sst>
 </file>
@@ -345,7 +345,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541882A7-A459-41CC-81D9-C209B2B02AD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04225997-953C-4352-8F3F-4D6DA9F8618C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,10 +342,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -888,6 +888,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A40" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>7.9861111111111105E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04225997-953C-4352-8F3F-4D6DA9F8618C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0003F6F0-03A2-4443-9484-2264C19F5AE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,10 +342,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -789,7 +789,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D38" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D49" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -897,6 +897,64 @@
       </c>
       <c r="C40" s="3">
         <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9583333333333325E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D41" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D42" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D43" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D44" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D45" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D46" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D47" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D48" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D49" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0003F6F0-03A2-4443-9484-2264C19F5AE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8E70E5-C8E1-4F48-919C-2DBEF4B6706B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,8 +344,8 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -904,9 +904,18 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A41" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.84027777777777779</v>
+      </c>
       <c r="D41" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13194444444444442</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1">

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/buffalo/4_teaching/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8E70E5-C8E1-4F48-919C-2DBEF4B6706B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA3F31E-4C11-3741-97DD-E87406422C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -345,10 +353,10 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -919,9 +927,18 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A42" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.8125</v>
+      </c>
       <c r="D42" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1">

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/buffalo/4_teaching/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA3F31E-4C11-3741-97DD-E87406422C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4818613-AE37-5043-BE2A-554DB259FCE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,7 +353,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -942,9 +942,18 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A43" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.8305555555555556</v>
+      </c>
       <c r="D43" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10138888888888897</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1">

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/buffalo/4_teaching/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA3F31E-4C11-3741-97DD-E87406422C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A150984A-0AEA-4EE8-94CA-E24ABECD7820}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -353,10 +345,10 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -942,9 +934,18 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A43" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.82986111111111116</v>
+      </c>
       <c r="D43" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.10069444444444453</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1">

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/buffalo/4_teaching/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A150984A-0AEA-4EE8-94CA-E24ABECD7820}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D1927-528B-0D40-9C6F-D53F220573A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -345,10 +353,10 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -949,9 +957,18 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A44" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.79513888888888884</v>
+      </c>
       <c r="D44" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.638888888888884E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1">

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/buffalo/4_teaching/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D1927-528B-0D40-9C6F-D53F220573A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BABCA09-0039-9041-84DD-D132591BE76C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,9 +972,18 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A45" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.77430555555555547</v>
+      </c>
       <c r="D45" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5972222222222099E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1">

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/buffalo/4_teaching/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BABCA09-0039-9041-84DD-D132591BE76C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803248CF-0D13-41EB-B12D-A0E5EA7FA652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -60,6 +52,9 @@
   </si>
   <si>
     <t>10 hour 214 min =13.57 hr *1500 =20355 (paid)</t>
+  </si>
+  <si>
+    <t>18000元</t>
   </si>
 </sst>
 </file>
@@ -352,11 +347,11 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -801,7 +796,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>45039</v>
       </c>
@@ -816,7 +811,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>45046</v>
       </c>
@@ -831,7 +826,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>45060</v>
       </c>
@@ -846,7 +841,7 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>45067</v>
       </c>
@@ -861,7 +856,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>45084</v>
       </c>
@@ -876,7 +871,7 @@
         <v>5.555555555555558E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="8">
         <v>45096</v>
       </c>
@@ -891,12 +886,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>45100</v>
       </c>
@@ -911,7 +906,7 @@
         <v>3.9583333333333325E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>45108</v>
       </c>
@@ -926,7 +921,7 @@
         <v>0.13194444444444442</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>45116</v>
       </c>
@@ -941,7 +936,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>45138</v>
       </c>
@@ -956,7 +951,7 @@
         <v>0.10069444444444453</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>45158</v>
       </c>
@@ -971,7 +966,7 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>45165</v>
       </c>
@@ -986,19 +981,22 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="D46" s="3">
+        <f>SUM(D40:D45)</f>
+        <v>0.49791666666666656</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D47" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D47" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="D48" s="3">
         <f t="shared" si="2"/>
         <v>0</v>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803248CF-0D13-41EB-B12D-A0E5EA7FA652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5462A7BB-6D5F-4ECF-8BBA-B00CDC2891A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>10 hour 214 min =13.57 hr *1500 =20355 (paid)</t>
   </si>
   <si>
-    <t>18000元</t>
+    <t>18000元 (paid)</t>
   </si>
 </sst>
 </file>
@@ -347,8 +347,8 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andy 1/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5462A7BB-6D5F-4ECF-8BBA-B00CDC2891A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46494F1-FC14-F445-AA15-40B3BB50F073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -347,13 +355,13 @@
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -367,7 +375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>44811</v>
       </c>
@@ -382,7 +390,7 @@
         <v>9.7222222222222099E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -397,7 +405,7 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>44815</v>
       </c>
@@ -412,7 +420,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>44821</v>
       </c>
@@ -427,7 +435,7 @@
         <v>6.6666666666666763E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>44824</v>
       </c>
@@ -442,7 +450,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>44828</v>
       </c>
@@ -457,7 +465,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>44829</v>
       </c>
@@ -472,12 +480,12 @@
         <v>9.7916666666666652E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>44836</v>
       </c>
@@ -492,7 +500,7 @@
         <v>0.15416666666666662</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>44836</v>
       </c>
@@ -507,7 +515,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>44842</v>
       </c>
@@ -522,7 +530,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>44843</v>
       </c>
@@ -537,7 +545,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>44856</v>
       </c>
@@ -552,7 +560,7 @@
         <v>3.8194444444444531E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>44857</v>
       </c>
@@ -567,7 +575,7 @@
         <v>7.4999999999999956E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>44863</v>
       </c>
@@ -582,7 +590,7 @@
         <v>4.3750000000000011E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>44863</v>
       </c>
@@ -597,7 +605,7 @@
         <v>5.1388888888888817E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>44863</v>
       </c>
@@ -612,12 +620,12 @@
         <v>8.1249999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>44868</v>
       </c>
@@ -632,7 +640,7 @@
         <v>4.7222222222222165E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>44869</v>
       </c>
@@ -647,7 +655,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>44870</v>
       </c>
@@ -662,7 +670,7 @@
         <v>8.6111111111111138E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>44871</v>
       </c>
@@ -677,7 +685,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>44977</v>
       </c>
@@ -692,12 +700,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>44991</v>
       </c>
@@ -712,7 +720,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>44994</v>
       </c>
@@ -727,7 +735,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>45004</v>
       </c>
@@ -742,7 +750,7 @@
         <v>9.3055555555555558E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>45011</v>
       </c>
@@ -757,7 +765,7 @@
         <v>9.1666666666666563E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>45018</v>
       </c>
@@ -772,7 +780,7 @@
         <v>9.5138888888888884E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="3">
         <f>SUM(D26:D30)</f>
         <v>0.46736111111111101</v>
@@ -781,7 +789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>45032</v>
       </c>
@@ -796,7 +804,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>45039</v>
       </c>
@@ -811,7 +819,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>45046</v>
       </c>
@@ -826,7 +834,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>45060</v>
       </c>
@@ -841,7 +849,7 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>45067</v>
       </c>
@@ -856,7 +864,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>45084</v>
       </c>
@@ -871,7 +879,7 @@
         <v>5.555555555555558E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>45096</v>
       </c>
@@ -886,12 +894,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>45100</v>
       </c>
@@ -906,7 +914,7 @@
         <v>3.9583333333333325E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>45108</v>
       </c>
@@ -921,7 +929,7 @@
         <v>0.13194444444444442</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>45116</v>
       </c>
@@ -936,7 +944,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>45138</v>
       </c>
@@ -951,7 +959,7 @@
         <v>0.10069444444444453</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>45158</v>
       </c>
@@ -966,7 +974,7 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>45165</v>
       </c>
@@ -981,7 +989,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="3">
         <f>SUM(D40:D45)</f>
         <v>0.49791666666666656</v>
@@ -990,19 +998,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.80208333333333337</v>
+      </c>
       <c r="D47" s="3">
         <f t="shared" si="2"/>
+        <v>7.2916666666666741E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D48" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D48" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" ht="15.75" customHeight="1">
+    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="3">
         <f t="shared" si="2"/>
         <v>0</v>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andy 1/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46494F1-FC14-F445-AA15-40B3BB50F073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFA5B80-3F9E-154E-8B39-21BBC9A13056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -356,12 +356,12 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,7 +375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>44811</v>
       </c>
@@ -390,7 +390,7 @@
         <v>9.7222222222222099E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -405,7 +405,7 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>44815</v>
       </c>
@@ -420,7 +420,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>44821</v>
       </c>
@@ -435,7 +435,7 @@
         <v>6.6666666666666763E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>44824</v>
       </c>
@@ -450,7 +450,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>44828</v>
       </c>
@@ -465,7 +465,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>44829</v>
       </c>
@@ -480,12 +480,12 @@
         <v>9.7916666666666652E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>44836</v>
       </c>
@@ -500,7 +500,7 @@
         <v>0.15416666666666662</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>44836</v>
       </c>
@@ -515,7 +515,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>44842</v>
       </c>
@@ -530,7 +530,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>44843</v>
       </c>
@@ -545,7 +545,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>44856</v>
       </c>
@@ -560,7 +560,7 @@
         <v>3.8194444444444531E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>44857</v>
       </c>
@@ -575,7 +575,7 @@
         <v>7.4999999999999956E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>44863</v>
       </c>
@@ -590,7 +590,7 @@
         <v>4.3750000000000011E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>44863</v>
       </c>
@@ -605,7 +605,7 @@
         <v>5.1388888888888817E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>44863</v>
       </c>
@@ -620,12 +620,12 @@
         <v>8.1249999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>44868</v>
       </c>
@@ -640,7 +640,7 @@
         <v>4.7222222222222165E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>44869</v>
       </c>
@@ -655,7 +655,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>44870</v>
       </c>
@@ -670,7 +670,7 @@
         <v>8.6111111111111138E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>44871</v>
       </c>
@@ -685,7 +685,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>44977</v>
       </c>
@@ -700,12 +700,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>44991</v>
       </c>
@@ -720,7 +720,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>44994</v>
       </c>
@@ -735,7 +735,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>45004</v>
       </c>
@@ -750,7 +750,7 @@
         <v>9.3055555555555558E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>45011</v>
       </c>
@@ -765,7 +765,7 @@
         <v>9.1666666666666563E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>45018</v>
       </c>
@@ -780,7 +780,7 @@
         <v>9.5138888888888884E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="D31" s="3">
         <f>SUM(D26:D30)</f>
         <v>0.46736111111111101</v>
@@ -789,7 +789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>45032</v>
       </c>
@@ -804,7 +804,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>45039</v>
       </c>
@@ -819,7 +819,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>45046</v>
       </c>
@@ -834,7 +834,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>45060</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>45067</v>
       </c>
@@ -864,7 +864,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>45084</v>
       </c>
@@ -879,7 +879,7 @@
         <v>5.555555555555558E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="8">
         <v>45096</v>
       </c>
@@ -894,12 +894,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>45100</v>
       </c>
@@ -914,7 +914,7 @@
         <v>3.9583333333333325E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>45108</v>
       </c>
@@ -929,7 +929,7 @@
         <v>0.13194444444444442</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>45116</v>
       </c>
@@ -944,7 +944,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>45138</v>
       </c>
@@ -959,7 +959,7 @@
         <v>0.10069444444444453</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>45158</v>
       </c>
@@ -974,7 +974,7 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>45165</v>
       </c>
@@ -989,7 +989,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="D46" s="3">
         <f>SUM(D40:D45)</f>
         <v>0.49791666666666656</v>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>45179</v>
       </c>
@@ -1013,13 +1013,22 @@
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.79861111111111116</v>
+      </c>
       <c r="D48" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9.027777777777779E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="15.75" customHeight="1">
       <c r="D49" s="3">
         <f t="shared" si="2"/>
         <v>0</v>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andy 1/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFA5B80-3F9E-154E-8B39-21BBC9A13056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F46894-F710-0840-BCC2-93852111565C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,7 +356,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1028,10 +1028,19 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="49" spans="4:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A49" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.80763888888888891</v>
+      </c>
       <c r="D49" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.2361111111111116E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andy 1/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F46894-F710-0840-BCC2-93852111565C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC69CF0-ABB3-EB45-B384-B6DDFF177571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,10 +353,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -800,7 +800,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D49" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D50" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -1041,6 +1041,21 @@
       <c r="D49" s="3">
         <f t="shared" si="2"/>
         <v>9.2361111111111116E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A50" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="2"/>
+        <v>9.027777777777779E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Andy 1/repo/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC69CF0-ABB3-EB45-B384-B6DDFF177571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05462225-BCC7-4D81-A80A-19B0FF936F0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -353,13 +345,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -800,7 +792,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D50" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D51" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -1056,6 +1048,21 @@
       <c r="D50" s="3">
         <f t="shared" si="2"/>
         <v>9.027777777777779E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A51" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.93680555555555556</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10347222222222219</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fortune500_SDG_Analysis\record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05462225-BCC7-4D81-A80A-19B0FF936F0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E960EDBB-6C2A-464C-AAE8-48913C02541B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32380" yWindow="-1120" windowWidth="28220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -117,19 +129,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -345,15 +358,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -367,7 +380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>44811</v>
       </c>
@@ -382,7 +395,7 @@
         <v>9.7222222222222099E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -397,7 +410,7 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>44815</v>
       </c>
@@ -412,7 +425,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>44821</v>
       </c>
@@ -427,7 +440,7 @@
         <v>6.6666666666666763E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>44824</v>
       </c>
@@ -442,7 +455,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>44828</v>
       </c>
@@ -457,7 +470,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>44829</v>
       </c>
@@ -472,12 +485,12 @@
         <v>9.7916666666666652E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>44836</v>
       </c>
@@ -492,7 +505,7 @@
         <v>0.15416666666666662</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>44836</v>
       </c>
@@ -507,7 +520,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>44842</v>
       </c>
@@ -522,7 +535,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>44843</v>
       </c>
@@ -537,7 +550,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>44856</v>
       </c>
@@ -552,7 +565,7 @@
         <v>3.8194444444444531E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>44857</v>
       </c>
@@ -567,7 +580,7 @@
         <v>7.4999999999999956E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>44863</v>
       </c>
@@ -582,7 +595,7 @@
         <v>4.3750000000000011E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>44863</v>
       </c>
@@ -597,7 +610,7 @@
         <v>5.1388888888888817E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>44863</v>
       </c>
@@ -612,12 +625,12 @@
         <v>8.1249999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>44868</v>
       </c>
@@ -632,7 +645,7 @@
         <v>4.7222222222222165E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>44869</v>
       </c>
@@ -647,7 +660,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>44870</v>
       </c>
@@ -662,7 +675,7 @@
         <v>8.6111111111111138E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>44871</v>
       </c>
@@ -677,7 +690,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>44977</v>
       </c>
@@ -692,12 +705,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>44991</v>
       </c>
@@ -712,7 +725,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>44994</v>
       </c>
@@ -727,7 +740,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>45004</v>
       </c>
@@ -742,7 +755,7 @@
         <v>9.3055555555555558E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>45011</v>
       </c>
@@ -757,7 +770,7 @@
         <v>9.1666666666666563E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>45018</v>
       </c>
@@ -772,7 +785,7 @@
         <v>9.5138888888888884E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="3">
         <f>SUM(D26:D30)</f>
         <v>0.46736111111111101</v>
@@ -781,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>45032</v>
       </c>
@@ -792,11 +805,11 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D51" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D52" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>45039</v>
       </c>
@@ -811,7 +824,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>45046</v>
       </c>
@@ -826,7 +839,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>45060</v>
       </c>
@@ -841,7 +854,7 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>45067</v>
       </c>
@@ -856,7 +869,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>45084</v>
       </c>
@@ -871,7 +884,7 @@
         <v>5.555555555555558E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>45096</v>
       </c>
@@ -886,12 +899,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>45100</v>
       </c>
@@ -906,7 +919,7 @@
         <v>3.9583333333333325E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>45108</v>
       </c>
@@ -921,7 +934,7 @@
         <v>0.13194444444444442</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>45116</v>
       </c>
@@ -936,7 +949,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>45138</v>
       </c>
@@ -951,7 +964,7 @@
         <v>0.10069444444444453</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>45158</v>
       </c>
@@ -966,7 +979,7 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>45165</v>
       </c>
@@ -981,7 +994,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="3">
         <f>SUM(D40:D45)</f>
         <v>0.49791666666666656</v>
@@ -990,7 +1003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>45179</v>
       </c>
@@ -1005,7 +1018,7 @@
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45186</v>
       </c>
@@ -1020,7 +1033,7 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>45193</v>
       </c>
@@ -1035,7 +1048,7 @@
         <v>9.2361111111111116E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>45200</v>
       </c>
@@ -1050,7 +1063,7 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>45222</v>
       </c>
@@ -1063,6 +1076,21 @@
       <c r="D51" s="3">
         <f t="shared" si="2"/>
         <v>0.10347222222222219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="9">
+        <v>45224</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="2"/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/4_teaching/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E960EDBB-6C2A-464C-AAE8-48913C02541B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAB20D-CE03-CB42-AB05-7FDEFB320CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36300" yWindow="-1160" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -73,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -142,7 +138,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,15 +354,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -380,7 +376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>44811</v>
       </c>
@@ -395,7 +391,7 @@
         <v>9.7222222222222099E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -410,7 +406,7 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>44815</v>
       </c>
@@ -425,7 +421,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>44821</v>
       </c>
@@ -440,7 +436,7 @@
         <v>6.6666666666666763E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>44824</v>
       </c>
@@ -455,7 +451,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>44828</v>
       </c>
@@ -470,7 +466,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>44829</v>
       </c>
@@ -485,12 +481,12 @@
         <v>9.7916666666666652E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>44836</v>
       </c>
@@ -505,7 +501,7 @@
         <v>0.15416666666666662</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>44836</v>
       </c>
@@ -520,7 +516,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>44842</v>
       </c>
@@ -535,7 +531,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>44843</v>
       </c>
@@ -550,7 +546,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>44856</v>
       </c>
@@ -565,7 +561,7 @@
         <v>3.8194444444444531E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>44857</v>
       </c>
@@ -580,7 +576,7 @@
         <v>7.4999999999999956E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>44863</v>
       </c>
@@ -595,7 +591,7 @@
         <v>4.3750000000000011E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>44863</v>
       </c>
@@ -610,7 +606,7 @@
         <v>5.1388888888888817E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>44863</v>
       </c>
@@ -625,12 +621,12 @@
         <v>8.1249999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>44868</v>
       </c>
@@ -645,7 +641,7 @@
         <v>4.7222222222222165E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>44869</v>
       </c>
@@ -660,7 +656,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>44870</v>
       </c>
@@ -675,7 +671,7 @@
         <v>8.6111111111111138E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>44871</v>
       </c>
@@ -690,7 +686,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>44977</v>
       </c>
@@ -705,12 +701,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>44991</v>
       </c>
@@ -725,7 +721,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>44994</v>
       </c>
@@ -740,7 +736,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>45004</v>
       </c>
@@ -755,7 +751,7 @@
         <v>9.3055555555555558E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>45011</v>
       </c>
@@ -770,7 +766,7 @@
         <v>9.1666666666666563E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>45018</v>
       </c>
@@ -785,7 +781,7 @@
         <v>9.5138888888888884E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="D31" s="3">
         <f>SUM(D26:D30)</f>
         <v>0.46736111111111101</v>
@@ -794,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>45032</v>
       </c>
@@ -805,11 +801,11 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D52" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D53" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>45039</v>
       </c>
@@ -824,7 +820,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>45046</v>
       </c>
@@ -839,7 +835,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>45060</v>
       </c>
@@ -854,7 +850,7 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>45067</v>
       </c>
@@ -869,7 +865,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>45084</v>
       </c>
@@ -884,7 +880,7 @@
         <v>5.555555555555558E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="8">
         <v>45096</v>
       </c>
@@ -899,12 +895,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>45100</v>
       </c>
@@ -919,7 +915,7 @@
         <v>3.9583333333333325E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>45108</v>
       </c>
@@ -934,7 +930,7 @@
         <v>0.13194444444444442</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>45116</v>
       </c>
@@ -949,7 +945,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>45138</v>
       </c>
@@ -964,7 +960,7 @@
         <v>0.10069444444444453</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>45158</v>
       </c>
@@ -979,7 +975,7 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>45165</v>
       </c>
@@ -994,7 +990,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="D46" s="3">
         <f>SUM(D40:D45)</f>
         <v>0.49791666666666656</v>
@@ -1003,7 +999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>45179</v>
       </c>
@@ -1018,7 +1014,7 @@
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>45186</v>
       </c>
@@ -1033,7 +1029,7 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>45193</v>
       </c>
@@ -1048,7 +1044,7 @@
         <v>9.2361111111111116E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>45200</v>
       </c>
@@ -1063,7 +1059,7 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>45222</v>
       </c>
@@ -1078,7 +1074,7 @@
         <v>0.10347222222222219</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="9">
         <v>45224</v>
       </c>
@@ -1091,6 +1087,21 @@
       <c r="D52" s="3">
         <f t="shared" si="2"/>
         <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A53" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="2"/>
+        <v>4.513888888888884E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/4_teaching/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DAB20D-CE03-CB42-AB05-7FDEFB320CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4175381B-F740-514E-A162-D08117E1DE93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36300" yWindow="-1160" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,10 +354,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -801,7 +801,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D53" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D54" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -1102,6 +1102,21 @@
       <c r="D53" s="3">
         <f t="shared" si="2"/>
         <v>4.513888888888884E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A54" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/4_teaching/repo/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4175381B-F740-514E-A162-D08117E1DE93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2C02A6-1762-5940-861F-6CC22851688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36300" yWindow="-1160" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29100" yWindow="3580" windowWidth="38900" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -63,13 +67,21 @@
   </si>
   <si>
     <t>18000元 (paid)</t>
+  </si>
+  <si>
+    <t>14.87 hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22305元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -354,15 +366,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -376,7 +388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>44811</v>
       </c>
@@ -391,7 +403,7 @@
         <v>9.7222222222222099E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -406,7 +418,7 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>44815</v>
       </c>
@@ -421,7 +433,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>44821</v>
       </c>
@@ -436,7 +448,7 @@
         <v>6.6666666666666763E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>44824</v>
       </c>
@@ -451,7 +463,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>44828</v>
       </c>
@@ -466,7 +478,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>44829</v>
       </c>
@@ -481,12 +493,12 @@
         <v>9.7916666666666652E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>44836</v>
       </c>
@@ -501,7 +513,7 @@
         <v>0.15416666666666662</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>44836</v>
       </c>
@@ -516,7 +528,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>44842</v>
       </c>
@@ -531,7 +543,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>44843</v>
       </c>
@@ -546,7 +558,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>44856</v>
       </c>
@@ -561,7 +573,7 @@
         <v>3.8194444444444531E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>44857</v>
       </c>
@@ -576,7 +588,7 @@
         <v>7.4999999999999956E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>44863</v>
       </c>
@@ -591,7 +603,7 @@
         <v>4.3750000000000011E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>44863</v>
       </c>
@@ -606,7 +618,7 @@
         <v>5.1388888888888817E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>44863</v>
       </c>
@@ -621,12 +633,12 @@
         <v>8.1249999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>44868</v>
       </c>
@@ -641,7 +653,7 @@
         <v>4.7222222222222165E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>44869</v>
       </c>
@@ -656,7 +668,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>44870</v>
       </c>
@@ -671,7 +683,7 @@
         <v>8.6111111111111138E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>44871</v>
       </c>
@@ -686,7 +698,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>44977</v>
       </c>
@@ -701,12 +713,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>44991</v>
       </c>
@@ -721,7 +733,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>44994</v>
       </c>
@@ -736,7 +748,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>45004</v>
       </c>
@@ -751,7 +763,7 @@
         <v>9.3055555555555558E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>45011</v>
       </c>
@@ -766,7 +778,7 @@
         <v>9.1666666666666563E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>45018</v>
       </c>
@@ -781,7 +793,7 @@
         <v>9.5138888888888884E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="3">
         <f>SUM(D26:D30)</f>
         <v>0.46736111111111101</v>
@@ -790,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>45032</v>
       </c>
@@ -805,7 +817,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>45039</v>
       </c>
@@ -820,7 +832,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>45046</v>
       </c>
@@ -835,7 +847,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>45060</v>
       </c>
@@ -850,7 +862,7 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>45067</v>
       </c>
@@ -865,7 +877,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>45084</v>
       </c>
@@ -880,7 +892,7 @@
         <v>5.555555555555558E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>45096</v>
       </c>
@@ -895,12 +907,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>45100</v>
       </c>
@@ -915,7 +927,7 @@
         <v>3.9583333333333325E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>45108</v>
       </c>
@@ -930,7 +942,7 @@
         <v>0.13194444444444442</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>45116</v>
       </c>
@@ -945,7 +957,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>45138</v>
       </c>
@@ -960,7 +972,7 @@
         <v>0.10069444444444453</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>45158</v>
       </c>
@@ -975,7 +987,7 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>45165</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="3">
         <f>SUM(D40:D45)</f>
         <v>0.49791666666666656</v>
@@ -999,7 +1011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>45179</v>
       </c>
@@ -1014,7 +1026,7 @@
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45186</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>45193</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>9.2361111111111116E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>45200</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>45222</v>
       </c>
@@ -1074,7 +1086,7 @@
         <v>0.10347222222222219</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>45224</v>
       </c>
@@ -1089,7 +1101,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>45241</v>
       </c>
@@ -1104,7 +1116,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>45242</v>
       </c>
@@ -1117,6 +1129,14 @@
       <c r="D54" s="3">
         <f t="shared" si="2"/>
         <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2C02A6-1762-5940-861F-6CC22851688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF37A5C-D904-CE44-B97B-B8695F7FBB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29100" yWindow="3580" windowWidth="38900" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>22305元</t>
+    <t>22305元 (paid)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/4_teaching/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF37A5C-D904-CE44-B97B-B8695F7FBB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D259A6-3547-444B-A694-5C71DF6CED22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29100" yWindow="3580" windowWidth="38900" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -366,10 +362,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -813,7 +809,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D54" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D56" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -1137,6 +1133,21 @@
       </c>
       <c r="E55" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="2"/>
+        <v>9.375E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/4_teaching/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D259A6-3547-444B-A694-5C71DF6CED22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F35DBE-C38E-4F4D-B92E-16F988B25F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -362,15 +362,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>44811</v>
       </c>
@@ -399,7 +399,7 @@
         <v>9.7222222222222099E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -414,7 +414,7 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>44815</v>
       </c>
@@ -429,7 +429,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>44821</v>
       </c>
@@ -444,7 +444,7 @@
         <v>6.6666666666666763E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>44824</v>
       </c>
@@ -459,7 +459,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>44828</v>
       </c>
@@ -474,7 +474,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>44829</v>
       </c>
@@ -489,12 +489,12 @@
         <v>9.7916666666666652E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>44836</v>
       </c>
@@ -509,7 +509,7 @@
         <v>0.15416666666666662</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>44836</v>
       </c>
@@ -524,7 +524,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>44842</v>
       </c>
@@ -539,7 +539,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>44843</v>
       </c>
@@ -554,7 +554,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>44856</v>
       </c>
@@ -569,7 +569,7 @@
         <v>3.8194444444444531E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>44857</v>
       </c>
@@ -584,7 +584,7 @@
         <v>7.4999999999999956E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>44863</v>
       </c>
@@ -599,7 +599,7 @@
         <v>4.3750000000000011E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>44863</v>
       </c>
@@ -614,7 +614,7 @@
         <v>5.1388888888888817E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>44863</v>
       </c>
@@ -629,12 +629,12 @@
         <v>8.1249999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>44868</v>
       </c>
@@ -649,7 +649,7 @@
         <v>4.7222222222222165E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>44869</v>
       </c>
@@ -664,7 +664,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>44870</v>
       </c>
@@ -679,7 +679,7 @@
         <v>8.6111111111111138E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>44871</v>
       </c>
@@ -694,7 +694,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>44977</v>
       </c>
@@ -709,12 +709,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>44991</v>
       </c>
@@ -729,7 +729,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>44994</v>
       </c>
@@ -744,7 +744,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>45004</v>
       </c>
@@ -759,7 +759,7 @@
         <v>9.3055555555555558E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>45011</v>
       </c>
@@ -774,7 +774,7 @@
         <v>9.1666666666666563E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>45018</v>
       </c>
@@ -789,7 +789,7 @@
         <v>9.5138888888888884E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="D31" s="3">
         <f>SUM(D26:D30)</f>
         <v>0.46736111111111101</v>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>45032</v>
       </c>
@@ -809,11 +809,11 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D56" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D57" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>45039</v>
       </c>
@@ -828,7 +828,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>45046</v>
       </c>
@@ -843,7 +843,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>45060</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>45067</v>
       </c>
@@ -873,7 +873,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>45084</v>
       </c>
@@ -888,7 +888,7 @@
         <v>5.555555555555558E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="8">
         <v>45096</v>
       </c>
@@ -903,12 +903,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>45100</v>
       </c>
@@ -923,7 +923,7 @@
         <v>3.9583333333333325E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>45108</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0.13194444444444442</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>45116</v>
       </c>
@@ -953,7 +953,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>45138</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0.10069444444444453</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>45158</v>
       </c>
@@ -983,7 +983,7 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>45165</v>
       </c>
@@ -998,7 +998,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="D46" s="3">
         <f>SUM(D40:D45)</f>
         <v>0.49791666666666656</v>
@@ -1007,7 +1007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>45179</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>45186</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>45193</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>9.2361111111111116E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>45200</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>45222</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0.10347222222222219</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="9">
         <v>45224</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>45241</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>45242</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="D55" s="4" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>45263</v>
       </c>
@@ -1148,6 +1148,21 @@
       <c r="D56" s="3">
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A57" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="2"/>
+        <v>9.722222222222221E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/4_teaching/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F35DBE-C38E-4F4D-B92E-16F988B25F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABBC417-0021-AB40-B139-547800E89D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -809,7 +809,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D57" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D58" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -1163,6 +1163,21 @@
       <c r="D57" s="3">
         <f t="shared" si="2"/>
         <v>9.722222222222221E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A58" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="2"/>
+        <v>5.902777777777779E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/4_teaching/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABBC417-0021-AB40-B139-547800E89D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02366354-BABE-EC46-A52E-56DDF5CD4FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,7 +362,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
@@ -809,7 +809,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D58" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D59" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -1178,6 +1178,21 @@
       <c r="D58" s="3">
         <f t="shared" si="2"/>
         <v>5.902777777777779E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="2"/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/4_teaching/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02366354-BABE-EC46-A52E-56DDF5CD4FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352E42F7-235A-DB47-A3E8-46B746E1C531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,10 +362,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -809,7 +809,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D59" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D60" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -1193,6 +1193,21 @@
       <c r="D59" s="3">
         <f t="shared" si="2"/>
         <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A60" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="2"/>
+        <v>7.638888888888884E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/4_teaching/repo/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352E42F7-235A-DB47-A3E8-46B746E1C531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8171B51-04E8-8A41-926F-96DE96577789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="700" windowWidth="26100" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +74,14 @@
   </si>
   <si>
     <t>22305元 (paid)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.83 hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16245 元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -362,15 +374,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -384,7 +396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>44811</v>
       </c>
@@ -399,7 +411,7 @@
         <v>9.7222222222222099E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -414,7 +426,7 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>44815</v>
       </c>
@@ -429,7 +441,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>44821</v>
       </c>
@@ -444,7 +456,7 @@
         <v>6.6666666666666763E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>44824</v>
       </c>
@@ -459,7 +471,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>44828</v>
       </c>
@@ -474,7 +486,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>44829</v>
       </c>
@@ -489,12 +501,12 @@
         <v>9.7916666666666652E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>44836</v>
       </c>
@@ -509,7 +521,7 @@
         <v>0.15416666666666662</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>44836</v>
       </c>
@@ -524,7 +536,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>44842</v>
       </c>
@@ -539,7 +551,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>44843</v>
       </c>
@@ -554,7 +566,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>44856</v>
       </c>
@@ -569,7 +581,7 @@
         <v>3.8194444444444531E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>44857</v>
       </c>
@@ -584,7 +596,7 @@
         <v>7.4999999999999956E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>44863</v>
       </c>
@@ -599,7 +611,7 @@
         <v>4.3750000000000011E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>44863</v>
       </c>
@@ -614,7 +626,7 @@
         <v>5.1388888888888817E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>44863</v>
       </c>
@@ -629,12 +641,12 @@
         <v>8.1249999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>44868</v>
       </c>
@@ -649,7 +661,7 @@
         <v>4.7222222222222165E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>44869</v>
       </c>
@@ -664,7 +676,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>44870</v>
       </c>
@@ -679,7 +691,7 @@
         <v>8.6111111111111138E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>44871</v>
       </c>
@@ -694,7 +706,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>44977</v>
       </c>
@@ -709,12 +721,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>44991</v>
       </c>
@@ -729,7 +741,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>44994</v>
       </c>
@@ -744,7 +756,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>45004</v>
       </c>
@@ -759,7 +771,7 @@
         <v>9.3055555555555558E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>45011</v>
       </c>
@@ -774,7 +786,7 @@
         <v>9.1666666666666563E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>45018</v>
       </c>
@@ -789,7 +801,7 @@
         <v>9.5138888888888884E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="3">
         <f>SUM(D26:D30)</f>
         <v>0.46736111111111101</v>
@@ -798,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>45032</v>
       </c>
@@ -813,7 +825,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>45039</v>
       </c>
@@ -828,7 +840,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>45046</v>
       </c>
@@ -843,7 +855,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>45060</v>
       </c>
@@ -858,7 +870,7 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>45067</v>
       </c>
@@ -873,7 +885,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>45084</v>
       </c>
@@ -888,7 +900,7 @@
         <v>5.555555555555558E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>45096</v>
       </c>
@@ -903,12 +915,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>45100</v>
       </c>
@@ -923,7 +935,7 @@
         <v>3.9583333333333325E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>45108</v>
       </c>
@@ -938,7 +950,7 @@
         <v>0.13194444444444442</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>45116</v>
       </c>
@@ -953,7 +965,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>45138</v>
       </c>
@@ -968,7 +980,7 @@
         <v>0.10069444444444453</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>45158</v>
       </c>
@@ -983,7 +995,7 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>45165</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="3">
         <f>SUM(D40:D45)</f>
         <v>0.49791666666666656</v>
@@ -1007,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>45179</v>
       </c>
@@ -1022,7 +1034,7 @@
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>45186</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>45193</v>
       </c>
@@ -1052,7 +1064,7 @@
         <v>9.2361111111111116E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>45200</v>
       </c>
@@ -1067,7 +1079,7 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>45222</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>0.10347222222222219</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>45224</v>
       </c>
@@ -1097,7 +1109,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>45241</v>
       </c>
@@ -1112,7 +1124,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>45242</v>
       </c>
@@ -1127,7 +1139,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="4" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>45263</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>45275</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>9.722222222222221E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>45305</v>
       </c>
@@ -1180,7 +1192,7 @@
         <v>5.902777777777779E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>45312</v>
       </c>
@@ -1195,7 +1207,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>45312</v>
       </c>
@@ -1208,6 +1220,14 @@
       <c r="D60" s="3">
         <f t="shared" si="2"/>
         <v>7.638888888888884E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8171B51-04E8-8A41-926F-96DE96577789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA1F94-27BD-7B42-ABD1-77EF0C83D3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="700" windowWidth="26100" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="700" windowWidth="25960" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>16245 元</t>
+    <t>16245元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -376,8 +376,8 @@
   </sheetPr>
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/4_teaching/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA1F94-27BD-7B42-ABD1-77EF0C83D3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA327386-A689-C340-94C1-8B420C1A8BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="700" windowWidth="25960" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -89,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -374,15 +370,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>44811</v>
       </c>
@@ -411,7 +407,7 @@
         <v>9.7222222222222099E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -426,7 +422,7 @@
         <v>3.472222222222221E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>44815</v>
       </c>
@@ -441,7 +437,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>44821</v>
       </c>
@@ -456,7 +452,7 @@
         <v>6.6666666666666763E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>44824</v>
       </c>
@@ -471,7 +467,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>44828</v>
       </c>
@@ -486,7 +482,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>44829</v>
       </c>
@@ -501,12 +497,12 @@
         <v>9.7916666666666652E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="D9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>44836</v>
       </c>
@@ -521,7 +517,7 @@
         <v>0.15416666666666662</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>44836</v>
       </c>
@@ -536,7 +532,7 @@
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>44842</v>
       </c>
@@ -551,7 +547,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>44843</v>
       </c>
@@ -566,7 +562,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>44856</v>
       </c>
@@ -581,7 +577,7 @@
         <v>3.8194444444444531E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>44857</v>
       </c>
@@ -596,7 +592,7 @@
         <v>7.4999999999999956E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>44863</v>
       </c>
@@ -611,7 +607,7 @@
         <v>4.3750000000000011E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>44863</v>
       </c>
@@ -626,7 +622,7 @@
         <v>5.1388888888888817E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>44863</v>
       </c>
@@ -641,12 +637,12 @@
         <v>8.1249999999999933E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>44868</v>
       </c>
@@ -661,7 +657,7 @@
         <v>4.7222222222222165E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>44869</v>
       </c>
@@ -676,7 +672,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>44870</v>
       </c>
@@ -691,7 +687,7 @@
         <v>8.6111111111111138E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>44871</v>
       </c>
@@ -706,7 +702,7 @@
         <v>8.8888888888888906E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>44977</v>
       </c>
@@ -721,12 +717,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>44991</v>
       </c>
@@ -741,7 +737,7 @@
         <v>0.10416666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>44994</v>
       </c>
@@ -756,7 +752,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>45004</v>
       </c>
@@ -771,7 +767,7 @@
         <v>9.3055555555555558E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>45011</v>
       </c>
@@ -786,7 +782,7 @@
         <v>9.1666666666666563E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>45018</v>
       </c>
@@ -801,7 +797,7 @@
         <v>9.5138888888888884E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="D31" s="3">
         <f>SUM(D26:D30)</f>
         <v>0.46736111111111101</v>
@@ -810,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>45032</v>
       </c>
@@ -821,11 +817,11 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D60" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D62" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>45039</v>
       </c>
@@ -840,7 +836,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>45046</v>
       </c>
@@ -855,7 +851,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>45060</v>
       </c>
@@ -870,7 +866,7 @@
         <v>0.10277777777777763</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>45067</v>
       </c>
@@ -885,7 +881,7 @@
         <v>7.291666666666663E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>45084</v>
       </c>
@@ -900,7 +896,7 @@
         <v>5.555555555555558E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="8">
         <v>45096</v>
       </c>
@@ -915,12 +911,12 @@
         <v>7.0833333333333304E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>45100</v>
       </c>
@@ -935,7 +931,7 @@
         <v>3.9583333333333325E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>45108</v>
       </c>
@@ -950,7 +946,7 @@
         <v>0.13194444444444442</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>45116</v>
       </c>
@@ -965,7 +961,7 @@
         <v>8.333333333333337E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>45138</v>
       </c>
@@ -980,7 +976,7 @@
         <v>0.10069444444444453</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>45158</v>
       </c>
@@ -995,7 +991,7 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>45165</v>
       </c>
@@ -1010,7 +1006,7 @@
         <v>6.5972222222222099E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="D46" s="3">
         <f>SUM(D40:D45)</f>
         <v>0.49791666666666656</v>
@@ -1019,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>45179</v>
       </c>
@@ -1034,7 +1030,7 @@
         <v>7.2916666666666741E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>45186</v>
       </c>
@@ -1049,7 +1045,7 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>45193</v>
       </c>
@@ -1064,7 +1060,7 @@
         <v>9.2361111111111116E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>45200</v>
       </c>
@@ -1079,7 +1075,7 @@
         <v>9.027777777777779E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>45222</v>
       </c>
@@ -1094,7 +1090,7 @@
         <v>0.10347222222222219</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="9">
         <v>45224</v>
       </c>
@@ -1109,7 +1105,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>45241</v>
       </c>
@@ -1124,7 +1120,7 @@
         <v>4.513888888888884E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>45242</v>
       </c>
@@ -1139,7 +1135,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="D55" s="4" t="s">
         <v>11</v>
       </c>
@@ -1147,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>45263</v>
       </c>
@@ -1162,7 +1158,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" s="2">
         <v>45275</v>
       </c>
@@ -1177,7 +1173,7 @@
         <v>9.722222222222221E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" s="2">
         <v>45305</v>
       </c>
@@ -1192,7 +1188,7 @@
         <v>5.902777777777779E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="2">
         <v>45312</v>
       </c>
@@ -1207,7 +1203,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
       <c r="A60" s="2">
         <v>45312</v>
       </c>
@@ -1222,12 +1218,27 @@
         <v>7.638888888888884E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="D61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A62" s="2">
+        <v>45403</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="2"/>
+        <v>9.3055555555555558E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/4_teaching/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA327386-A689-C340-94C1-8B420C1A8BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDAA814-7CEC-0140-A408-DBD89AC93541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="700" windowWidth="25960" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -817,7 +817,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D62" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D63" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -1239,6 +1239,21 @@
       <c r="D62" s="3">
         <f t="shared" si="2"/>
         <v>9.3055555555555558E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A63" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="2"/>
+        <v>9.375E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TOSHIBA EXT/4_teaching/repo/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDAA814-7CEC-0140-A408-DBD89AC93541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3886BCA-CC1E-8C4B-A0F7-A92FC3995D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="700" windowWidth="25960" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,10 +370,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -817,7 +817,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ref="D32:D63" si="2">C32-B32</f>
+        <f t="shared" ref="D32:D64" si="2">C32-B32</f>
         <v>6.944444444444442E-2</v>
       </c>
     </row>
@@ -1254,6 +1254,21 @@
       <c r="D63" s="3">
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A64" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="2"/>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
   </sheetData>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -90,12 +90,18 @@
       <name val="PMingLiU"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -108,16 +114,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -134,34 +140,34 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="20" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="46" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="16" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -181,6 +187,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -380,17 +387,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -417,10 +424,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -659,12 +666,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -941,7 +948,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -968,10 +975,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1213,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1243,10 +1250,10 @@
         <v>44811</v>
       </c>
       <c r="B2" s="5">
-        <v>1.901388888888889</v>
+        <v>2.901388888888889</v>
       </c>
       <c r="C2" s="5">
-        <v>1.998611111111111</v>
+        <v>2.998611111111111</v>
       </c>
       <c r="D2" s="6">
         <f>C2-B2</f>
@@ -1259,10 +1266,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <v>1.834722222222222</v>
+        <v>2.834722222222222</v>
       </c>
       <c r="C3" s="5">
-        <v>1.869444444444444</v>
+        <v>2.869444444444444</v>
       </c>
       <c r="D3" s="7">
         <f>C3-B3</f>
@@ -1275,10 +1282,10 @@
         <v>44815</v>
       </c>
       <c r="B4" s="5">
-        <v>1.645833333333333</v>
+        <v>2.645833333333333</v>
       </c>
       <c r="C4" s="5">
-        <v>1.694444444444444</v>
+        <v>2.694444444444445</v>
       </c>
       <c r="D4" s="6">
         <f>C4-B4</f>
@@ -1291,10 +1298,10 @@
         <v>44821</v>
       </c>
       <c r="B5" s="5">
-        <v>1.875</v>
+        <v>2.875</v>
       </c>
       <c r="C5" s="5">
-        <v>1.941666666666667</v>
+        <v>2.941666666666666</v>
       </c>
       <c r="D5" s="6">
         <f>C5-B5</f>
@@ -1307,10 +1314,10 @@
         <v>44824</v>
       </c>
       <c r="B6" s="5">
-        <v>1.9375</v>
+        <v>2.9375</v>
       </c>
       <c r="C6" s="5">
-        <v>1.979166666666667</v>
+        <v>2.979166666666667</v>
       </c>
       <c r="D6" s="8">
         <f>C6-B6</f>
@@ -1323,10 +1330,10 @@
         <v>44828</v>
       </c>
       <c r="B7" s="5">
-        <v>1.944444444444444</v>
+        <v>2.944444444444445</v>
       </c>
       <c r="C7" s="5">
-        <v>1.986111111111111</v>
+        <v>2.986111111111111</v>
       </c>
       <c r="D7" s="8">
         <f>C7-B7</f>
@@ -1339,10 +1346,10 @@
         <v>44829</v>
       </c>
       <c r="B8" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C8" s="5">
-        <v>1.80625</v>
+        <v>2.80625</v>
       </c>
       <c r="D8" s="6">
         <f>C8-B8</f>
@@ -1364,10 +1371,10 @@
         <v>44836</v>
       </c>
       <c r="B10" s="5">
-        <v>1.416666666666667</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="C10" s="5">
-        <v>1.570833333333333</v>
+        <v>2.570833333333333</v>
       </c>
       <c r="D10" s="6">
         <f>C10-B10</f>
@@ -1380,10 +1387,10 @@
         <v>44836</v>
       </c>
       <c r="B11" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C11" s="5">
-        <v>1.777777777777778</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="D11" s="6">
         <f>C11-B11</f>
@@ -1396,10 +1403,10 @@
         <v>44842</v>
       </c>
       <c r="B12" s="5">
-        <v>1.833333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="C12" s="5">
-        <v>1.895833333333333</v>
+        <v>2.895833333333333</v>
       </c>
       <c r="D12" s="6">
         <f>C12-B12</f>
@@ -1412,10 +1419,10 @@
         <v>44843</v>
       </c>
       <c r="B13" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C13" s="5">
-        <v>1.774305555555556</v>
+        <v>2.774305555555555</v>
       </c>
       <c r="D13" s="6">
         <f>C13-B13</f>
@@ -1428,10 +1435,10 @@
         <v>44856</v>
       </c>
       <c r="B14" s="5">
-        <v>1.933333333333333</v>
+        <v>2.933333333333334</v>
       </c>
       <c r="C14" s="5">
-        <v>1.971527777777778</v>
+        <v>2.971527777777778</v>
       </c>
       <c r="D14" s="7">
         <f>C14-B14</f>
@@ -1444,10 +1451,10 @@
         <v>44857</v>
       </c>
       <c r="B15" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C15" s="5">
-        <v>1.783333333333333</v>
+        <v>2.783333333333333</v>
       </c>
       <c r="D15" s="6">
         <f>C15-B15</f>
@@ -1460,10 +1467,10 @@
         <v>44863</v>
       </c>
       <c r="B16" s="5">
-        <v>1.449305555555556</v>
+        <v>2.449305555555556</v>
       </c>
       <c r="C16" s="5">
-        <v>1.493055555555556</v>
+        <v>2.493055555555555</v>
       </c>
       <c r="D16" s="6">
         <f>C16-B16</f>
@@ -1476,10 +1483,10 @@
         <v>44863</v>
       </c>
       <c r="B17" s="5">
-        <v>1.665972222222222</v>
+        <v>2.665972222222222</v>
       </c>
       <c r="C17" s="5">
-        <v>1.717361111111111</v>
+        <v>2.717361111111111</v>
       </c>
       <c r="D17" s="6">
         <f>C17-B17</f>
@@ -1492,10 +1499,10 @@
         <v>44863</v>
       </c>
       <c r="B18" s="5">
-        <v>1.722916666666667</v>
+        <v>2.722916666666666</v>
       </c>
       <c r="C18" s="5">
-        <v>1.804166666666667</v>
+        <v>2.804166666666667</v>
       </c>
       <c r="D18" s="6">
         <f>C18-B18</f>
@@ -1517,10 +1524,10 @@
         <v>44868</v>
       </c>
       <c r="B20" s="5">
-        <v>1.943055555555556</v>
+        <v>2.943055555555556</v>
       </c>
       <c r="C20" s="5">
-        <v>1.990277777777778</v>
+        <v>2.990277777777778</v>
       </c>
       <c r="D20" s="6">
         <f>C20-B20</f>
@@ -1533,10 +1540,10 @@
         <v>44869</v>
       </c>
       <c r="B21" s="5">
-        <v>1.359722222222222</v>
+        <v>2.359722222222222</v>
       </c>
       <c r="C21" s="5">
-        <v>1.401388888888889</v>
+        <v>2.401388888888889</v>
       </c>
       <c r="D21" s="8">
         <f>C21-B21</f>
@@ -1549,7 +1556,7 @@
         <v>44870</v>
       </c>
       <c r="B22" s="5">
-        <v>1.916666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="C22" s="10">
         <v>1.002777777777778</v>
@@ -1564,7 +1571,7 @@
         <v>44871</v>
       </c>
       <c r="B23" s="5">
-        <v>1.715277777777778</v>
+        <v>2.715277777777778</v>
       </c>
       <c r="C23" s="10">
         <v>0.8041666666666667</v>
@@ -1579,10 +1586,10 @@
         <v>44977</v>
       </c>
       <c r="B24" s="5">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="C24" s="5">
-        <v>1.820833333333333</v>
+        <v>2.820833333333333</v>
       </c>
       <c r="D24" s="6">
         <f>C24-B24</f>
@@ -1604,10 +1611,10 @@
         <v>44991</v>
       </c>
       <c r="B26" s="5">
-        <v>1.888888888888889</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="C26" s="5">
-        <v>1.993055555555556</v>
+        <v>2.993055555555555</v>
       </c>
       <c r="D26" s="6">
         <f>C26-B26</f>
@@ -1620,10 +1627,10 @@
         <v>44994</v>
       </c>
       <c r="B27" s="5">
-        <v>1.875</v>
+        <v>2.875</v>
       </c>
       <c r="C27" s="5">
-        <v>1.958333333333333</v>
+        <v>2.958333333333333</v>
       </c>
       <c r="D27" s="8">
         <f>C27-B27</f>
@@ -1636,10 +1643,10 @@
         <v>45004</v>
       </c>
       <c r="B28" s="5">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="C28" s="5">
-        <v>1.843055555555555</v>
+        <v>2.843055555555555</v>
       </c>
       <c r="D28" s="6">
         <f>C28-B28</f>
@@ -1652,10 +1659,10 @@
         <v>45011</v>
       </c>
       <c r="B29" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C29" s="5">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="D29" s="6">
         <f>C29-B29</f>
@@ -1668,10 +1675,10 @@
         <v>45018</v>
       </c>
       <c r="B30" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C30" s="5">
-        <v>1.803472222222222</v>
+        <v>2.803472222222222</v>
       </c>
       <c r="D30" s="6">
         <f>C30-B30</f>
@@ -1695,10 +1702,10 @@
         <v>45032</v>
       </c>
       <c r="B32" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C32" s="5">
-        <v>1.777777777777778</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="D32" s="6">
         <f>C32-B32</f>
@@ -1711,10 +1718,10 @@
         <v>45039</v>
       </c>
       <c r="B33" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C33" s="5">
-        <v>1.802083333333333</v>
+        <v>2.802083333333333</v>
       </c>
       <c r="D33" s="6">
         <f>C33-B33</f>
@@ -1727,10 +1734,10 @@
         <v>45046</v>
       </c>
       <c r="B34" s="5">
-        <v>1.715277777777778</v>
+        <v>2.715277777777778</v>
       </c>
       <c r="C34" s="5">
-        <v>1.815277777777778</v>
+        <v>2.815277777777778</v>
       </c>
       <c r="D34" s="6">
         <f>C34-B34</f>
@@ -1743,10 +1750,10 @@
         <v>45060</v>
       </c>
       <c r="B35" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C35" s="5">
-        <v>1.811111111111111</v>
+        <v>2.811111111111111</v>
       </c>
       <c r="D35" s="6">
         <f>C35-B35</f>
@@ -1759,10 +1766,10 @@
         <v>45067</v>
       </c>
       <c r="B36" s="5">
-        <v>1.71875</v>
+        <v>2.71875</v>
       </c>
       <c r="C36" s="5">
-        <v>1.791666666666667</v>
+        <v>2.791666666666667</v>
       </c>
       <c r="D36" s="6">
         <f>C36-B36</f>
@@ -1775,10 +1782,10 @@
         <v>45084</v>
       </c>
       <c r="B37" s="5">
-        <v>1.752083333333333</v>
+        <v>2.752083333333333</v>
       </c>
       <c r="C37" s="5">
-        <v>1.807638888888889</v>
+        <v>2.807638888888889</v>
       </c>
       <c r="D37" s="6">
         <f>C37-B37</f>
@@ -1791,10 +1798,10 @@
         <v>45096</v>
       </c>
       <c r="B38" s="5">
-        <v>1.715277777777778</v>
+        <v>2.715277777777778</v>
       </c>
       <c r="C38" s="5">
-        <v>1.786111111111111</v>
+        <v>2.786111111111111</v>
       </c>
       <c r="D38" s="6">
         <f>C38-B38</f>
@@ -1816,10 +1823,10 @@
         <v>45100</v>
       </c>
       <c r="B40" s="5">
-        <v>1.040277777777778</v>
+        <v>2.040277777777778</v>
       </c>
       <c r="C40" s="5">
-        <v>1.079861111111111</v>
+        <v>2.079861111111111</v>
       </c>
       <c r="D40" s="7">
         <f>C40-B40</f>
@@ -1832,10 +1839,10 @@
         <v>45108</v>
       </c>
       <c r="B41" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C41" s="5">
-        <v>1.840277777777778</v>
+        <v>2.840277777777778</v>
       </c>
       <c r="D41" s="6">
         <f>C41-B41</f>
@@ -1848,10 +1855,10 @@
         <v>45116</v>
       </c>
       <c r="B42" s="5">
-        <v>1.729166666666667</v>
+        <v>2.729166666666667</v>
       </c>
       <c r="C42" s="5">
-        <v>1.8125</v>
+        <v>2.8125</v>
       </c>
       <c r="D42" s="8">
         <f>C42-B42</f>
@@ -1864,10 +1871,10 @@
         <v>45138</v>
       </c>
       <c r="B43" s="5">
-        <v>1.729166666666667</v>
+        <v>2.729166666666667</v>
       </c>
       <c r="C43" s="5">
-        <v>1.829861111111111</v>
+        <v>2.829861111111111</v>
       </c>
       <c r="D43" s="6">
         <f>C43-B43</f>
@@ -1880,10 +1887,10 @@
         <v>45158</v>
       </c>
       <c r="B44" s="5">
-        <v>1.71875</v>
+        <v>2.71875</v>
       </c>
       <c r="C44" s="5">
-        <v>1.795138888888889</v>
+        <v>2.795138888888889</v>
       </c>
       <c r="D44" s="6">
         <f>C44-B44</f>
@@ -1896,10 +1903,10 @@
         <v>45165</v>
       </c>
       <c r="B45" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C45" s="5">
-        <v>1.774305555555556</v>
+        <v>2.774305555555555</v>
       </c>
       <c r="D45" s="6">
         <f>C45-B45</f>
@@ -1923,10 +1930,10 @@
         <v>45179</v>
       </c>
       <c r="B47" s="5">
-        <v>1.729166666666667</v>
+        <v>2.729166666666667</v>
       </c>
       <c r="C47" s="5">
-        <v>1.802083333333333</v>
+        <v>2.802083333333333</v>
       </c>
       <c r="D47" s="6">
         <f>C47-B47</f>
@@ -1939,10 +1946,10 @@
         <v>45186</v>
       </c>
       <c r="B48" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C48" s="5">
-        <v>1.798611111111111</v>
+        <v>2.798611111111111</v>
       </c>
       <c r="D48" s="6">
         <f>C48-B48</f>
@@ -1955,10 +1962,10 @@
         <v>45193</v>
       </c>
       <c r="B49" s="5">
-        <v>1.715277777777778</v>
+        <v>2.715277777777778</v>
       </c>
       <c r="C49" s="5">
-        <v>1.807638888888889</v>
+        <v>2.807638888888889</v>
       </c>
       <c r="D49" s="6">
         <f>C49-B49</f>
@@ -1971,10 +1978,10 @@
         <v>45200</v>
       </c>
       <c r="B50" s="5">
-        <v>1.71875</v>
+        <v>2.71875</v>
       </c>
       <c r="C50" s="5">
-        <v>1.809027777777778</v>
+        <v>2.809027777777778</v>
       </c>
       <c r="D50" s="6">
         <f>C50-B50</f>
@@ -1987,10 +1994,10 @@
         <v>45222</v>
       </c>
       <c r="B51" s="5">
-        <v>1.833333333333333</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="C51" s="5">
-        <v>1.936805555555555</v>
+        <v>2.936805555555555</v>
       </c>
       <c r="D51" s="6">
         <f>C51-B51</f>
@@ -2003,10 +2010,10 @@
         <v>45224</v>
       </c>
       <c r="B52" s="5">
-        <v>1.875</v>
+        <v>2.875</v>
       </c>
       <c r="C52" s="5">
-        <v>1.916666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D52" s="8">
         <f>C52-B52</f>
@@ -2019,10 +2026,10 @@
         <v>45241</v>
       </c>
       <c r="B53" s="5">
-        <v>1.871527777777778</v>
+        <v>2.871527777777778</v>
       </c>
       <c r="C53" s="5">
-        <v>1.916666666666667</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D53" s="6">
         <f>C53-B53</f>
@@ -2035,10 +2042,10 @@
         <v>45242</v>
       </c>
       <c r="B54" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C54" s="5">
-        <v>1.791666666666667</v>
+        <v>2.791666666666667</v>
       </c>
       <c r="D54" s="8">
         <f>C54-B54</f>
@@ -2062,10 +2069,10 @@
         <v>45263</v>
       </c>
       <c r="B56" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C56" s="5">
-        <v>1.802083333333333</v>
+        <v>2.802083333333333</v>
       </c>
       <c r="D56" s="6">
         <f>C56-B56</f>
@@ -2078,10 +2085,10 @@
         <v>45275</v>
       </c>
       <c r="B57" s="5">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="C57" s="5">
-        <v>1.847222222222222</v>
+        <v>2.847222222222222</v>
       </c>
       <c r="D57" s="6">
         <f>C57-B57</f>
@@ -2094,10 +2101,10 @@
         <v>45305</v>
       </c>
       <c r="B58" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C58" s="5">
-        <v>1.767361111111111</v>
+        <v>2.767361111111111</v>
       </c>
       <c r="D58" s="6">
         <f>C58-B58</f>
@@ -2110,10 +2117,10 @@
         <v>45312</v>
       </c>
       <c r="B59" s="5">
-        <v>1.354166666666667</v>
+        <v>2.354166666666667</v>
       </c>
       <c r="C59" s="5">
-        <v>1.395833333333333</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="D59" s="8">
         <f>C59-B59</f>
@@ -2126,10 +2133,10 @@
         <v>45312</v>
       </c>
       <c r="B60" s="5">
-        <v>1.666666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C60" s="5">
-        <v>1.743055555555556</v>
+        <v>2.743055555555555</v>
       </c>
       <c r="D60" s="6">
         <f>C60-B60</f>
@@ -2153,10 +2160,10 @@
         <v>45403</v>
       </c>
       <c r="B62" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C62" s="5">
-        <v>1.801388888888889</v>
+        <v>2.801388888888889</v>
       </c>
       <c r="D62" s="6">
         <f>C62-B62</f>
@@ -2169,10 +2176,10 @@
         <v>45410</v>
       </c>
       <c r="B63" s="5">
-        <v>1.708333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="C63" s="5">
-        <v>1.802083333333333</v>
+        <v>2.802083333333333</v>
       </c>
       <c r="D63" s="6">
         <f>C63-B63</f>
@@ -2185,10 +2192,10 @@
         <v>45414</v>
       </c>
       <c r="B64" s="5">
-        <v>1.71875</v>
+        <v>2.71875</v>
       </c>
       <c r="C64" s="5">
-        <v>1.739583333333333</v>
+        <v>2.739583333333333</v>
       </c>
       <c r="D64" s="7">
         <f>C64-B64</f>
@@ -2208,9 +2215,25 @@
       </c>
       <c r="D65" s="7">
         <f>C65-B65</f>
-        <v>0.03958333333333333</v>
+        <v>0.03958333333885228</v>
       </c>
       <c r="E65" s="3"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="4">
+        <v>45421</v>
+      </c>
+      <c r="B66" s="5">
+        <v>45421.720138888886</v>
+      </c>
+      <c r="C66" s="5">
+        <v>45421.78125</v>
+      </c>
+      <c r="D66" s="7">
+        <f>C66-B66</f>
+        <v>0.06111111111111111</v>
+      </c>
+      <c r="E66" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1220,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1250,10 +1250,10 @@
         <v>44811</v>
       </c>
       <c r="B2" s="5">
-        <v>2.901388888888889</v>
+        <v>3.901388888888889</v>
       </c>
       <c r="C2" s="5">
-        <v>2.998611111111111</v>
+        <v>3.998611111111111</v>
       </c>
       <c r="D2" s="6">
         <f>C2-B2</f>
@@ -1266,10 +1266,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <v>2.834722222222222</v>
+        <v>3.834722222222222</v>
       </c>
       <c r="C3" s="5">
-        <v>2.869444444444444</v>
+        <v>3.869444444444444</v>
       </c>
       <c r="D3" s="7">
         <f>C3-B3</f>
@@ -1282,10 +1282,10 @@
         <v>44815</v>
       </c>
       <c r="B4" s="5">
-        <v>2.645833333333333</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="C4" s="5">
-        <v>2.694444444444445</v>
+        <v>3.694444444444445</v>
       </c>
       <c r="D4" s="6">
         <f>C4-B4</f>
@@ -1298,10 +1298,10 @@
         <v>44821</v>
       </c>
       <c r="B5" s="5">
-        <v>2.875</v>
+        <v>3.875</v>
       </c>
       <c r="C5" s="5">
-        <v>2.941666666666666</v>
+        <v>3.941666666666666</v>
       </c>
       <c r="D5" s="6">
         <f>C5-B5</f>
@@ -1314,10 +1314,10 @@
         <v>44824</v>
       </c>
       <c r="B6" s="5">
-        <v>2.9375</v>
+        <v>3.9375</v>
       </c>
       <c r="C6" s="5">
-        <v>2.979166666666667</v>
+        <v>3.979166666666667</v>
       </c>
       <c r="D6" s="8">
         <f>C6-B6</f>
@@ -1330,10 +1330,10 @@
         <v>44828</v>
       </c>
       <c r="B7" s="5">
-        <v>2.944444444444445</v>
+        <v>3.944444444444445</v>
       </c>
       <c r="C7" s="5">
-        <v>2.986111111111111</v>
+        <v>3.986111111111111</v>
       </c>
       <c r="D7" s="8">
         <f>C7-B7</f>
@@ -1346,10 +1346,10 @@
         <v>44829</v>
       </c>
       <c r="B8" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C8" s="5">
-        <v>2.80625</v>
+        <v>3.80625</v>
       </c>
       <c r="D8" s="6">
         <f>C8-B8</f>
@@ -1371,10 +1371,10 @@
         <v>44836</v>
       </c>
       <c r="B10" s="5">
-        <v>2.416666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="C10" s="5">
-        <v>2.570833333333333</v>
+        <v>3.570833333333333</v>
       </c>
       <c r="D10" s="6">
         <f>C10-B10</f>
@@ -1387,10 +1387,10 @@
         <v>44836</v>
       </c>
       <c r="B11" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C11" s="5">
-        <v>2.777777777777778</v>
+        <v>3.777777777777778</v>
       </c>
       <c r="D11" s="6">
         <f>C11-B11</f>
@@ -1403,10 +1403,10 @@
         <v>44842</v>
       </c>
       <c r="B12" s="5">
-        <v>2.833333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="C12" s="5">
-        <v>2.895833333333333</v>
+        <v>3.895833333333333</v>
       </c>
       <c r="D12" s="6">
         <f>C12-B12</f>
@@ -1419,10 +1419,10 @@
         <v>44843</v>
       </c>
       <c r="B13" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C13" s="5">
-        <v>2.774305555555555</v>
+        <v>3.774305555555555</v>
       </c>
       <c r="D13" s="6">
         <f>C13-B13</f>
@@ -1435,10 +1435,10 @@
         <v>44856</v>
       </c>
       <c r="B14" s="5">
-        <v>2.933333333333334</v>
+        <v>3.933333333333334</v>
       </c>
       <c r="C14" s="5">
-        <v>2.971527777777778</v>
+        <v>3.971527777777778</v>
       </c>
       <c r="D14" s="7">
         <f>C14-B14</f>
@@ -1451,10 +1451,10 @@
         <v>44857</v>
       </c>
       <c r="B15" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C15" s="5">
-        <v>2.783333333333333</v>
+        <v>3.783333333333333</v>
       </c>
       <c r="D15" s="6">
         <f>C15-B15</f>
@@ -1467,10 +1467,10 @@
         <v>44863</v>
       </c>
       <c r="B16" s="5">
-        <v>2.449305555555556</v>
+        <v>3.449305555555556</v>
       </c>
       <c r="C16" s="5">
-        <v>2.493055555555555</v>
+        <v>3.493055555555555</v>
       </c>
       <c r="D16" s="6">
         <f>C16-B16</f>
@@ -1483,10 +1483,10 @@
         <v>44863</v>
       </c>
       <c r="B17" s="5">
-        <v>2.665972222222222</v>
+        <v>3.665972222222222</v>
       </c>
       <c r="C17" s="5">
-        <v>2.717361111111111</v>
+        <v>3.717361111111111</v>
       </c>
       <c r="D17" s="6">
         <f>C17-B17</f>
@@ -1499,10 +1499,10 @@
         <v>44863</v>
       </c>
       <c r="B18" s="5">
-        <v>2.722916666666666</v>
+        <v>3.722916666666666</v>
       </c>
       <c r="C18" s="5">
-        <v>2.804166666666667</v>
+        <v>3.804166666666667</v>
       </c>
       <c r="D18" s="6">
         <f>C18-B18</f>
@@ -1524,10 +1524,10 @@
         <v>44868</v>
       </c>
       <c r="B20" s="5">
-        <v>2.943055555555556</v>
+        <v>3.943055555555556</v>
       </c>
       <c r="C20" s="5">
-        <v>2.990277777777778</v>
+        <v>3.990277777777778</v>
       </c>
       <c r="D20" s="6">
         <f>C20-B20</f>
@@ -1540,10 +1540,10 @@
         <v>44869</v>
       </c>
       <c r="B21" s="5">
-        <v>2.359722222222222</v>
+        <v>3.359722222222222</v>
       </c>
       <c r="C21" s="5">
-        <v>2.401388888888889</v>
+        <v>3.401388888888889</v>
       </c>
       <c r="D21" s="8">
         <f>C21-B21</f>
@@ -1556,7 +1556,7 @@
         <v>44870</v>
       </c>
       <c r="B22" s="5">
-        <v>2.916666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="C22" s="10">
         <v>1.002777777777778</v>
@@ -1571,7 +1571,7 @@
         <v>44871</v>
       </c>
       <c r="B23" s="5">
-        <v>2.715277777777778</v>
+        <v>3.715277777777778</v>
       </c>
       <c r="C23" s="10">
         <v>0.8041666666666667</v>
@@ -1586,10 +1586,10 @@
         <v>44977</v>
       </c>
       <c r="B24" s="5">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="C24" s="5">
-        <v>2.820833333333333</v>
+        <v>3.820833333333333</v>
       </c>
       <c r="D24" s="6">
         <f>C24-B24</f>
@@ -1611,10 +1611,10 @@
         <v>44991</v>
       </c>
       <c r="B26" s="5">
-        <v>2.888888888888889</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="C26" s="5">
-        <v>2.993055555555555</v>
+        <v>3.993055555555555</v>
       </c>
       <c r="D26" s="6">
         <f>C26-B26</f>
@@ -1627,10 +1627,10 @@
         <v>44994</v>
       </c>
       <c r="B27" s="5">
-        <v>2.875</v>
+        <v>3.875</v>
       </c>
       <c r="C27" s="5">
-        <v>2.958333333333333</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="D27" s="8">
         <f>C27-B27</f>
@@ -1643,10 +1643,10 @@
         <v>45004</v>
       </c>
       <c r="B28" s="5">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="C28" s="5">
-        <v>2.843055555555555</v>
+        <v>3.843055555555555</v>
       </c>
       <c r="D28" s="6">
         <f>C28-B28</f>
@@ -1659,10 +1659,10 @@
         <v>45011</v>
       </c>
       <c r="B29" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C29" s="5">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D29" s="6">
         <f>C29-B29</f>
@@ -1675,10 +1675,10 @@
         <v>45018</v>
       </c>
       <c r="B30" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C30" s="5">
-        <v>2.803472222222222</v>
+        <v>3.803472222222222</v>
       </c>
       <c r="D30" s="6">
         <f>C30-B30</f>
@@ -1702,10 +1702,10 @@
         <v>45032</v>
       </c>
       <c r="B32" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C32" s="5">
-        <v>2.777777777777778</v>
+        <v>3.777777777777778</v>
       </c>
       <c r="D32" s="6">
         <f>C32-B32</f>
@@ -1718,10 +1718,10 @@
         <v>45039</v>
       </c>
       <c r="B33" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C33" s="5">
-        <v>2.802083333333333</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="D33" s="6">
         <f>C33-B33</f>
@@ -1734,10 +1734,10 @@
         <v>45046</v>
       </c>
       <c r="B34" s="5">
-        <v>2.715277777777778</v>
+        <v>3.715277777777778</v>
       </c>
       <c r="C34" s="5">
-        <v>2.815277777777778</v>
+        <v>3.815277777777778</v>
       </c>
       <c r="D34" s="6">
         <f>C34-B34</f>
@@ -1750,10 +1750,10 @@
         <v>45060</v>
       </c>
       <c r="B35" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C35" s="5">
-        <v>2.811111111111111</v>
+        <v>3.811111111111111</v>
       </c>
       <c r="D35" s="6">
         <f>C35-B35</f>
@@ -1766,10 +1766,10 @@
         <v>45067</v>
       </c>
       <c r="B36" s="5">
-        <v>2.71875</v>
+        <v>3.71875</v>
       </c>
       <c r="C36" s="5">
-        <v>2.791666666666667</v>
+        <v>3.791666666666667</v>
       </c>
       <c r="D36" s="6">
         <f>C36-B36</f>
@@ -1782,10 +1782,10 @@
         <v>45084</v>
       </c>
       <c r="B37" s="5">
-        <v>2.752083333333333</v>
+        <v>3.752083333333333</v>
       </c>
       <c r="C37" s="5">
-        <v>2.807638888888889</v>
+        <v>3.807638888888889</v>
       </c>
       <c r="D37" s="6">
         <f>C37-B37</f>
@@ -1798,10 +1798,10 @@
         <v>45096</v>
       </c>
       <c r="B38" s="5">
-        <v>2.715277777777778</v>
+        <v>3.715277777777778</v>
       </c>
       <c r="C38" s="5">
-        <v>2.786111111111111</v>
+        <v>3.786111111111111</v>
       </c>
       <c r="D38" s="6">
         <f>C38-B38</f>
@@ -1823,10 +1823,10 @@
         <v>45100</v>
       </c>
       <c r="B40" s="5">
-        <v>2.040277777777778</v>
+        <v>3.040277777777778</v>
       </c>
       <c r="C40" s="5">
-        <v>2.079861111111111</v>
+        <v>3.079861111111111</v>
       </c>
       <c r="D40" s="7">
         <f>C40-B40</f>
@@ -1839,10 +1839,10 @@
         <v>45108</v>
       </c>
       <c r="B41" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C41" s="5">
-        <v>2.840277777777778</v>
+        <v>3.840277777777778</v>
       </c>
       <c r="D41" s="6">
         <f>C41-B41</f>
@@ -1855,10 +1855,10 @@
         <v>45116</v>
       </c>
       <c r="B42" s="5">
-        <v>2.729166666666667</v>
+        <v>3.729166666666667</v>
       </c>
       <c r="C42" s="5">
-        <v>2.8125</v>
+        <v>3.8125</v>
       </c>
       <c r="D42" s="8">
         <f>C42-B42</f>
@@ -1871,10 +1871,10 @@
         <v>45138</v>
       </c>
       <c r="B43" s="5">
-        <v>2.729166666666667</v>
+        <v>3.729166666666667</v>
       </c>
       <c r="C43" s="5">
-        <v>2.829861111111111</v>
+        <v>3.829861111111111</v>
       </c>
       <c r="D43" s="6">
         <f>C43-B43</f>
@@ -1887,10 +1887,10 @@
         <v>45158</v>
       </c>
       <c r="B44" s="5">
-        <v>2.71875</v>
+        <v>3.71875</v>
       </c>
       <c r="C44" s="5">
-        <v>2.795138888888889</v>
+        <v>3.795138888888889</v>
       </c>
       <c r="D44" s="6">
         <f>C44-B44</f>
@@ -1903,10 +1903,10 @@
         <v>45165</v>
       </c>
       <c r="B45" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C45" s="5">
-        <v>2.774305555555555</v>
+        <v>3.774305555555555</v>
       </c>
       <c r="D45" s="6">
         <f>C45-B45</f>
@@ -1930,10 +1930,10 @@
         <v>45179</v>
       </c>
       <c r="B47" s="5">
-        <v>2.729166666666667</v>
+        <v>3.729166666666667</v>
       </c>
       <c r="C47" s="5">
-        <v>2.802083333333333</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="D47" s="6">
         <f>C47-B47</f>
@@ -1946,10 +1946,10 @@
         <v>45186</v>
       </c>
       <c r="B48" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C48" s="5">
-        <v>2.798611111111111</v>
+        <v>3.798611111111111</v>
       </c>
       <c r="D48" s="6">
         <f>C48-B48</f>
@@ -1962,10 +1962,10 @@
         <v>45193</v>
       </c>
       <c r="B49" s="5">
-        <v>2.715277777777778</v>
+        <v>3.715277777777778</v>
       </c>
       <c r="C49" s="5">
-        <v>2.807638888888889</v>
+        <v>3.807638888888889</v>
       </c>
       <c r="D49" s="6">
         <f>C49-B49</f>
@@ -1978,10 +1978,10 @@
         <v>45200</v>
       </c>
       <c r="B50" s="5">
-        <v>2.71875</v>
+        <v>3.71875</v>
       </c>
       <c r="C50" s="5">
-        <v>2.809027777777778</v>
+        <v>3.809027777777778</v>
       </c>
       <c r="D50" s="6">
         <f>C50-B50</f>
@@ -1994,10 +1994,10 @@
         <v>45222</v>
       </c>
       <c r="B51" s="5">
-        <v>2.833333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="C51" s="5">
-        <v>2.936805555555555</v>
+        <v>3.936805555555555</v>
       </c>
       <c r="D51" s="6">
         <f>C51-B51</f>
@@ -2010,10 +2010,10 @@
         <v>45224</v>
       </c>
       <c r="B52" s="5">
-        <v>2.875</v>
+        <v>3.875</v>
       </c>
       <c r="C52" s="5">
-        <v>2.916666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D52" s="8">
         <f>C52-B52</f>
@@ -2026,10 +2026,10 @@
         <v>45241</v>
       </c>
       <c r="B53" s="5">
-        <v>2.871527777777778</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="C53" s="5">
-        <v>2.916666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D53" s="6">
         <f>C53-B53</f>
@@ -2042,10 +2042,10 @@
         <v>45242</v>
       </c>
       <c r="B54" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C54" s="5">
-        <v>2.791666666666667</v>
+        <v>3.791666666666667</v>
       </c>
       <c r="D54" s="8">
         <f>C54-B54</f>
@@ -2069,10 +2069,10 @@
         <v>45263</v>
       </c>
       <c r="B56" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C56" s="5">
-        <v>2.802083333333333</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="D56" s="6">
         <f>C56-B56</f>
@@ -2085,10 +2085,10 @@
         <v>45275</v>
       </c>
       <c r="B57" s="5">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="C57" s="5">
-        <v>2.847222222222222</v>
+        <v>3.847222222222222</v>
       </c>
       <c r="D57" s="6">
         <f>C57-B57</f>
@@ -2101,10 +2101,10 @@
         <v>45305</v>
       </c>
       <c r="B58" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C58" s="5">
-        <v>2.767361111111111</v>
+        <v>3.767361111111111</v>
       </c>
       <c r="D58" s="6">
         <f>C58-B58</f>
@@ -2117,10 +2117,10 @@
         <v>45312</v>
       </c>
       <c r="B59" s="5">
-        <v>2.354166666666667</v>
+        <v>3.354166666666667</v>
       </c>
       <c r="C59" s="5">
-        <v>2.395833333333333</v>
+        <v>3.395833333333333</v>
       </c>
       <c r="D59" s="8">
         <f>C59-B59</f>
@@ -2133,10 +2133,10 @@
         <v>45312</v>
       </c>
       <c r="B60" s="5">
-        <v>2.666666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="C60" s="5">
-        <v>2.743055555555555</v>
+        <v>3.743055555555555</v>
       </c>
       <c r="D60" s="6">
         <f>C60-B60</f>
@@ -2160,10 +2160,10 @@
         <v>45403</v>
       </c>
       <c r="B62" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C62" s="5">
-        <v>2.801388888888889</v>
+        <v>3.801388888888889</v>
       </c>
       <c r="D62" s="6">
         <f>C62-B62</f>
@@ -2176,10 +2176,10 @@
         <v>45410</v>
       </c>
       <c r="B63" s="5">
-        <v>2.708333333333333</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="C63" s="5">
-        <v>2.802083333333333</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="D63" s="6">
         <f>C63-B63</f>
@@ -2192,10 +2192,10 @@
         <v>45414</v>
       </c>
       <c r="B64" s="5">
-        <v>2.71875</v>
+        <v>3.71875</v>
       </c>
       <c r="C64" s="5">
-        <v>2.739583333333333</v>
+        <v>3.739583333333333</v>
       </c>
       <c r="D64" s="7">
         <f>C64-B64</f>
@@ -2234,6 +2234,22 @@
         <v>0.06111111111111111</v>
       </c>
       <c r="E66" s="3"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="4">
+        <v>45424</v>
+      </c>
+      <c r="B67" s="5">
+        <v>45424.708333333336</v>
+      </c>
+      <c r="C67" s="5">
+        <v>45424.747916666667</v>
+      </c>
+      <c r="D67" s="7">
+        <f>C67-B67</f>
+        <v>0.03958333333333333</v>
+      </c>
+      <c r="E67" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F62DE1-FAB7-5B4F-B5F1-753520FBE059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="800" yWindow="700" windowWidth="26240" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -55,20 +77,60 @@
     <t>10.83 hour</t>
   </si>
   <si>
-    <t>16245元</t>
+    <t>8.35 hour</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16245</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (paid)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12525</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="[h]&quot;h&quot; m&quot;m&quot;"/>
-    <numFmt numFmtId="60" formatCode="[m]&quot;m&quot;"/>
-    <numFmt numFmtId="61" formatCode="[h]&quot;h&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="[h]&quot;h&quot;\ m&quot;m&quot;"/>
+    <numFmt numFmtId="177" formatCode="[m]&quot;m&quot;"/>
+    <numFmt numFmtId="178" formatCode="[h]&quot;h&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -77,17 +139,28 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
-      <sz val="15"/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="9"/>
+      <name val="Wawati TC"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -129,73 +202,110 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -397,7 +507,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -415,7 +525,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -444,7 +554,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -469,7 +579,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -494,7 +604,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -519,7 +629,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -544,7 +654,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -569,7 +679,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -594,7 +704,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -619,7 +729,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -644,7 +754,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -657,9 +767,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -676,7 +792,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -694,7 +810,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -719,7 +835,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,7 +860,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -769,7 +885,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +910,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +935,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +960,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -869,7 +985,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +1010,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,7 +1035,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -932,9 +1048,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -948,7 +1070,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -966,7 +1088,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +1117,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,7 +1142,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,7 +1167,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1192,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1217,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1242,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1145,7 +1267,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1292,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1195,7 +1317,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,44 +1330,53 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="12.6719" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>44811</v>
       </c>
@@ -1253,31 +1384,31 @@
         <v>3.901388888888889</v>
       </c>
       <c r="C2" s="5">
-        <v>3.998611111111111</v>
+        <v>3.9986111111111109</v>
       </c>
       <c r="D2" s="6">
-        <f>C2-B2</f>
-        <v>0.09722222222222222</v>
+        <f t="shared" ref="D2:D8" si="0">C2-B2</f>
+        <v>9.7222222222221877E-2</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <v>3.834722222222222</v>
+        <v>3.8347222222222221</v>
       </c>
       <c r="C3" s="5">
         <v>3.869444444444444</v>
       </c>
       <c r="D3" s="7">
-        <f>C3-B3</f>
-        <v>0.03472222222222222</v>
+        <f t="shared" si="0"/>
+        <v>3.4722222222221877E-2</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>44815</v>
       </c>
@@ -1285,15 +1416,15 @@
         <v>3.645833333333333</v>
       </c>
       <c r="C4" s="5">
-        <v>3.694444444444445</v>
+        <v>3.6944444444444451</v>
       </c>
       <c r="D4" s="6">
-        <f>C4-B4</f>
-        <v>0.04861111111111111</v>
+        <f t="shared" si="0"/>
+        <v>4.8611111111112049E-2</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>44821</v>
       </c>
@@ -1304,12 +1435,12 @@
         <v>3.941666666666666</v>
       </c>
       <c r="D5" s="6">
-        <f>C5-B5</f>
-        <v>0.06666666666666667</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666665986E-2</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>44824</v>
       </c>
@@ -1320,28 +1451,28 @@
         <v>3.979166666666667</v>
       </c>
       <c r="D6" s="8">
-        <f>C6-B6</f>
-        <v>0.04166666666666666</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666963E-2</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>44828</v>
       </c>
       <c r="B7" s="5">
-        <v>3.944444444444445</v>
+        <v>3.9444444444444451</v>
       </c>
       <c r="C7" s="5">
-        <v>3.986111111111111</v>
+        <v>3.9861111111111112</v>
       </c>
       <c r="D7" s="8">
-        <f>C7-B7</f>
-        <v>0.04166666666666666</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666075E-2</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>44829</v>
       </c>
@@ -1349,24 +1480,24 @@
         <v>3.708333333333333</v>
       </c>
       <c r="C8" s="5">
-        <v>3.80625</v>
+        <v>3.8062499999999999</v>
       </c>
       <c r="D8" s="6">
-        <f>C8-B8</f>
-        <v>0.09791666666666667</v>
+        <f t="shared" si="0"/>
+        <v>9.7916666666666874E-2</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" t="s" s="2">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>44836</v>
       </c>
@@ -1374,15 +1505,15 @@
         <v>3.416666666666667</v>
       </c>
       <c r="C10" s="5">
-        <v>3.570833333333333</v>
+        <v>3.5708333333333329</v>
       </c>
       <c r="D10" s="6">
-        <f>C10-B10</f>
-        <v>0.1541666666666667</v>
+        <f t="shared" ref="D10:D18" si="1">C10-B10</f>
+        <v>0.1541666666666659</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>44836</v>
       </c>
@@ -1390,15 +1521,15 @@
         <v>3.708333333333333</v>
       </c>
       <c r="C11" s="5">
-        <v>3.777777777777778</v>
+        <v>3.7777777777777781</v>
       </c>
       <c r="D11" s="6">
-        <f>C11-B11</f>
-        <v>0.06944444444444445</v>
+        <f t="shared" si="1"/>
+        <v>6.9444444444445086E-2</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>44842</v>
       </c>
@@ -1409,12 +1540,12 @@
         <v>3.895833333333333</v>
       </c>
       <c r="D12" s="6">
-        <f>C12-B12</f>
-        <v>0.0625</v>
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>44843</v>
       </c>
@@ -1422,15 +1553,15 @@
         <v>3.708333333333333</v>
       </c>
       <c r="C13" s="5">
-        <v>3.774305555555555</v>
+        <v>3.7743055555555549</v>
       </c>
       <c r="D13" s="6">
-        <f>C13-B13</f>
-        <v>0.06597222222222222</v>
+        <f t="shared" si="1"/>
+        <v>6.5972222222221877E-2</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>44856</v>
       </c>
@@ -1438,15 +1569,15 @@
         <v>3.933333333333334</v>
       </c>
       <c r="C14" s="5">
-        <v>3.971527777777778</v>
+        <v>3.9715277777777782</v>
       </c>
       <c r="D14" s="7">
-        <f>C14-B14</f>
-        <v>0.03819444444444445</v>
+        <f t="shared" si="1"/>
+        <v>3.8194444444444198E-2</v>
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>44857</v>
       </c>
@@ -1454,31 +1585,31 @@
         <v>3.708333333333333</v>
       </c>
       <c r="C15" s="5">
-        <v>3.783333333333333</v>
+        <v>3.7833333333333332</v>
       </c>
       <c r="D15" s="6">
-        <f>C15-B15</f>
-        <v>0.075</v>
+        <f t="shared" si="1"/>
+        <v>7.5000000000000178E-2</v>
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>44863</v>
       </c>
       <c r="B16" s="5">
-        <v>3.449305555555556</v>
+        <v>3.4493055555555561</v>
       </c>
       <c r="C16" s="5">
-        <v>3.493055555555555</v>
+        <v>3.4930555555555549</v>
       </c>
       <c r="D16" s="6">
-        <f>C16-B16</f>
-        <v>0.04375</v>
+        <f t="shared" si="1"/>
+        <v>4.3749999999998845E-2</v>
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>44863</v>
       </c>
@@ -1486,15 +1617,15 @@
         <v>3.665972222222222</v>
       </c>
       <c r="C17" s="5">
-        <v>3.717361111111111</v>
+        <v>3.7173611111111109</v>
       </c>
       <c r="D17" s="6">
-        <f>C17-B17</f>
-        <v>0.05138888888888889</v>
+        <f t="shared" si="1"/>
+        <v>5.1388888888888928E-2</v>
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>44863</v>
       </c>
@@ -1502,24 +1633,24 @@
         <v>3.722916666666666</v>
       </c>
       <c r="C18" s="5">
-        <v>3.804166666666667</v>
+        <v>3.8041666666666671</v>
       </c>
       <c r="D18" s="6">
-        <f>C18-B18</f>
-        <v>0.08125</v>
+        <f t="shared" si="1"/>
+        <v>8.1250000000001155E-2</v>
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" t="s" s="9">
+      <c r="D19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>44868</v>
       </c>
@@ -1531,27 +1662,27 @@
       </c>
       <c r="D20" s="6">
         <f>C20-B20</f>
-        <v>0.04722222222222222</v>
+        <v>4.7222222222222054E-2</v>
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>44869</v>
       </c>
       <c r="B21" s="5">
-        <v>3.359722222222222</v>
+        <v>3.3597222222222221</v>
       </c>
       <c r="C21" s="5">
         <v>3.401388888888889</v>
       </c>
       <c r="D21" s="8">
         <f>C21-B21</f>
-        <v>0.04166666666666666</v>
+        <v>4.1666666666666963E-2</v>
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>44870</v>
       </c>
@@ -1563,25 +1694,27 @@
       </c>
       <c r="D22" s="5">
         <f>C22-B22</f>
+        <v>-2.9138888888888888</v>
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>44871</v>
       </c>
       <c r="B23" s="5">
-        <v>3.715277777777778</v>
+        <v>3.7152777777777781</v>
       </c>
       <c r="C23" s="10">
         <v>0.8041666666666667</v>
       </c>
       <c r="D23" s="5">
         <f>C23*24-B23</f>
+        <v>15.584722222222222</v>
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>44977</v>
       </c>
@@ -1589,40 +1722,40 @@
         <v>3.75</v>
       </c>
       <c r="C24" s="5">
-        <v>3.820833333333333</v>
+        <v>3.8208333333333329</v>
       </c>
       <c r="D24" s="6">
         <f>C24-B24</f>
-        <v>0.07083333333333333</v>
+        <v>7.083333333333286E-2</v>
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" t="s" s="2">
+      <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>44991</v>
       </c>
       <c r="B26" s="5">
-        <v>3.888888888888889</v>
+        <v>3.8888888888888888</v>
       </c>
       <c r="C26" s="5">
-        <v>3.993055555555555</v>
+        <v>3.9930555555555549</v>
       </c>
       <c r="D26" s="6">
         <f>C26-B26</f>
-        <v>0.1041666666666667</v>
+        <v>0.10416666666666607</v>
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>44994</v>
       </c>
@@ -1634,11 +1767,11 @@
       </c>
       <c r="D27" s="8">
         <f>C27-B27</f>
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333037E-2</v>
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>45004</v>
       </c>
@@ -1650,11 +1783,11 @@
       </c>
       <c r="D28" s="6">
         <f>C28-B28</f>
-        <v>0.09305555555555556</v>
+        <v>9.3055555555555003E-2</v>
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>45011</v>
       </c>
@@ -1666,11 +1799,11 @@
       </c>
       <c r="D29" s="6">
         <f>C29-B29</f>
-        <v>0.09166666666666666</v>
+        <v>9.1666666666666785E-2</v>
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>45018</v>
       </c>
@@ -1678,26 +1811,26 @@
         <v>3.708333333333333</v>
       </c>
       <c r="C30" s="5">
-        <v>3.803472222222222</v>
+        <v>3.8034722222222221</v>
       </c>
       <c r="D30" s="6">
         <f>C30-B30</f>
-        <v>0.09513888888888888</v>
+        <v>9.5138888888889106E-2</v>
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="6">
-        <v>0.4673611111111111</v>
-      </c>
-      <c r="E31" t="s" s="2">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>45032</v>
       </c>
@@ -1705,15 +1838,15 @@
         <v>3.708333333333333</v>
       </c>
       <c r="C32" s="5">
-        <v>3.777777777777778</v>
+        <v>3.7777777777777781</v>
       </c>
       <c r="D32" s="6">
-        <f>C32-B32</f>
-        <v>0.06944444444444445</v>
+        <f t="shared" ref="D32:D38" si="2">C32-B32</f>
+        <v>6.9444444444445086E-2</v>
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>45039</v>
       </c>
@@ -1724,28 +1857,28 @@
         <v>3.802083333333333</v>
       </c>
       <c r="D33" s="6">
-        <f>C33-B33</f>
-        <v>0.09375</v>
+        <f t="shared" si="2"/>
+        <v>9.375E-2</v>
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>45046</v>
       </c>
       <c r="B34" s="5">
-        <v>3.715277777777778</v>
+        <v>3.7152777777777781</v>
       </c>
       <c r="C34" s="5">
-        <v>3.815277777777778</v>
+        <v>3.8152777777777782</v>
       </c>
       <c r="D34" s="6">
-        <f>C34-B34</f>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>45060</v>
       </c>
@@ -1753,15 +1886,15 @@
         <v>3.708333333333333</v>
       </c>
       <c r="C35" s="5">
-        <v>3.811111111111111</v>
+        <v>3.8111111111111109</v>
       </c>
       <c r="D35" s="6">
-        <f>C35-B35</f>
-        <v>0.1027777777777778</v>
+        <f t="shared" si="2"/>
+        <v>0.10277777777777786</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>45067</v>
       </c>
@@ -1772,69 +1905,69 @@
         <v>3.791666666666667</v>
       </c>
       <c r="D36" s="6">
-        <f>C36-B36</f>
-        <v>0.07291666666666667</v>
+        <f t="shared" si="2"/>
+        <v>7.2916666666666963E-2</v>
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>45084</v>
       </c>
       <c r="B37" s="5">
-        <v>3.752083333333333</v>
+        <v>3.7520833333333332</v>
       </c>
       <c r="C37" s="5">
         <v>3.807638888888889</v>
       </c>
       <c r="D37" s="6">
-        <f>C37-B37</f>
-        <v>0.05555555555555555</v>
+        <f t="shared" si="2"/>
+        <v>5.5555555555555802E-2</v>
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>45096</v>
       </c>
       <c r="B38" s="5">
-        <v>3.715277777777778</v>
+        <v>3.7152777777777781</v>
       </c>
       <c r="C38" s="5">
         <v>3.786111111111111</v>
       </c>
       <c r="D38" s="6">
-        <f>C38-B38</f>
-        <v>0.07083333333333333</v>
+        <f t="shared" si="2"/>
+        <v>7.083333333333286E-2</v>
       </c>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" t="s" s="2">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>45100</v>
       </c>
       <c r="B40" s="5">
-        <v>3.040277777777778</v>
+        <v>3.0402777777777779</v>
       </c>
       <c r="C40" s="5">
-        <v>3.079861111111111</v>
+        <v>3.0798611111111112</v>
       </c>
       <c r="D40" s="7">
-        <f>C40-B40</f>
-        <v>0.03958333333333333</v>
+        <f t="shared" ref="D40:D45" si="3">C40-B40</f>
+        <v>3.9583333333333304E-2</v>
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>45108</v>
       </c>
@@ -1842,15 +1975,15 @@
         <v>3.708333333333333</v>
       </c>
       <c r="C41" s="5">
-        <v>3.840277777777778</v>
+        <v>3.8402777777777781</v>
       </c>
       <c r="D41" s="6">
-        <f>C41-B41</f>
-        <v>0.1319444444444444</v>
+        <f t="shared" si="3"/>
+        <v>0.13194444444444509</v>
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>45116</v>
       </c>
@@ -1861,12 +1994,12 @@
         <v>3.8125</v>
       </c>
       <c r="D42" s="8">
-        <f>C42-B42</f>
-        <v>0.08333333333333333</v>
+        <f t="shared" si="3"/>
+        <v>8.3333333333333037E-2</v>
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>45138</v>
       </c>
@@ -1874,15 +2007,15 @@
         <v>3.729166666666667</v>
       </c>
       <c r="C43" s="5">
-        <v>3.829861111111111</v>
+        <v>3.8298611111111112</v>
       </c>
       <c r="D43" s="6">
-        <f>C43-B43</f>
-        <v>0.1006944444444444</v>
+        <f t="shared" si="3"/>
+        <v>0.1006944444444442</v>
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>45158</v>
       </c>
@@ -1890,15 +2023,15 @@
         <v>3.71875</v>
       </c>
       <c r="C44" s="5">
-        <v>3.795138888888889</v>
+        <v>3.7951388888888888</v>
       </c>
       <c r="D44" s="6">
-        <f>C44-B44</f>
-        <v>0.0763888888888889</v>
+        <f t="shared" si="3"/>
+        <v>7.638888888888884E-2</v>
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>45165</v>
       </c>
@@ -1906,26 +2039,26 @@
         <v>3.708333333333333</v>
       </c>
       <c r="C45" s="5">
-        <v>3.774305555555555</v>
+        <v>3.7743055555555549</v>
       </c>
       <c r="D45" s="6">
-        <f>C45-B45</f>
-        <v>0.06597222222222222</v>
+        <f t="shared" si="3"/>
+        <v>6.5972222222221877E-2</v>
       </c>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="6">
-        <v>0.4979166666666667</v>
-      </c>
-      <c r="E46" t="s" s="2">
+        <v>0.49791666666666667</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>45179</v>
       </c>
@@ -1936,12 +2069,12 @@
         <v>3.802083333333333</v>
       </c>
       <c r="D47" s="6">
-        <f>C47-B47</f>
-        <v>0.07291666666666667</v>
+        <f t="shared" ref="D47:D54" si="4">C47-B47</f>
+        <v>7.2916666666666075E-2</v>
       </c>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>45186</v>
       </c>
@@ -1949,31 +2082,31 @@
         <v>3.708333333333333</v>
       </c>
       <c r="C48" s="5">
-        <v>3.798611111111111</v>
+        <v>3.7986111111111112</v>
       </c>
       <c r="D48" s="6">
-        <f>C48-B48</f>
-        <v>0.09027777777777778</v>
+        <f t="shared" si="4"/>
+        <v>9.0277777777778123E-2</v>
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>45193</v>
       </c>
       <c r="B49" s="5">
-        <v>3.715277777777778</v>
+        <v>3.7152777777777781</v>
       </c>
       <c r="C49" s="5">
         <v>3.807638888888889</v>
       </c>
       <c r="D49" s="6">
-        <f>C49-B49</f>
-        <v>0.09236111111111112</v>
+        <f t="shared" si="4"/>
+        <v>9.2361111111110894E-2</v>
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>45200</v>
       </c>
@@ -1981,15 +2114,15 @@
         <v>3.71875</v>
       </c>
       <c r="C50" s="5">
-        <v>3.809027777777778</v>
+        <v>3.8090277777777781</v>
       </c>
       <c r="D50" s="6">
-        <f>C50-B50</f>
-        <v>0.09027777777777778</v>
+        <f t="shared" si="4"/>
+        <v>9.0277777777778123E-2</v>
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>45222</v>
       </c>
@@ -2000,12 +2133,12 @@
         <v>3.936805555555555</v>
       </c>
       <c r="D51" s="6">
-        <f>C51-B51</f>
-        <v>0.1034722222222222</v>
+        <f t="shared" si="4"/>
+        <v>0.10347222222222197</v>
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>45224</v>
       </c>
@@ -2016,28 +2149,28 @@
         <v>3.916666666666667</v>
       </c>
       <c r="D52" s="8">
-        <f>C52-B52</f>
-        <v>0.04166666666666666</v>
+        <f t="shared" si="4"/>
+        <v>4.1666666666666963E-2</v>
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>45241</v>
       </c>
       <c r="B53" s="5">
-        <v>3.871527777777778</v>
+        <v>3.8715277777777781</v>
       </c>
       <c r="C53" s="5">
         <v>3.916666666666667</v>
       </c>
       <c r="D53" s="6">
-        <f>C53-B53</f>
-        <v>0.04513888888888889</v>
+        <f t="shared" si="4"/>
+        <v>4.513888888888884E-2</v>
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>45242</v>
       </c>
@@ -2048,23 +2181,23 @@
         <v>3.791666666666667</v>
       </c>
       <c r="D54" s="8">
-        <f>C54-B54</f>
-        <v>0.08333333333333333</v>
+        <f t="shared" si="4"/>
+        <v>8.3333333333333925E-2</v>
       </c>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" t="s" s="2">
+      <c r="D55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>45263</v>
       </c>
@@ -2076,11 +2209,11 @@
       </c>
       <c r="D56" s="6">
         <f>C56-B56</f>
-        <v>0.09375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>45275</v>
       </c>
@@ -2088,15 +2221,15 @@
         <v>3.75</v>
       </c>
       <c r="C57" s="5">
-        <v>3.847222222222222</v>
+        <v>3.8472222222222219</v>
       </c>
       <c r="D57" s="6">
         <f>C57-B57</f>
-        <v>0.09722222222222222</v>
+        <v>9.7222222222221877E-2</v>
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>45305</v>
       </c>
@@ -2104,15 +2237,15 @@
         <v>3.708333333333333</v>
       </c>
       <c r="C58" s="5">
-        <v>3.767361111111111</v>
+        <v>3.7673611111111112</v>
       </c>
       <c r="D58" s="6">
         <f>C58-B58</f>
-        <v>0.05902777777777778</v>
+        <v>5.9027777777778123E-2</v>
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>45312</v>
       </c>
@@ -2124,11 +2257,11 @@
       </c>
       <c r="D59" s="8">
         <f>C59-B59</f>
-        <v>0.04166666666666666</v>
+        <v>4.1666666666666075E-2</v>
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>45312</v>
       </c>
@@ -2136,26 +2269,26 @@
         <v>3.666666666666667</v>
       </c>
       <c r="C60" s="5">
-        <v>3.743055555555555</v>
+        <v>3.7430555555555549</v>
       </c>
       <c r="D60" s="6">
         <f>C60-B60</f>
-        <v>0.0763888888888889</v>
+        <v>7.6388888888887951E-2</v>
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" t="s" s="2">
+      <c r="D61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E61" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+      <c r="E61" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>45403</v>
       </c>
@@ -2163,15 +2296,15 @@
         <v>3.708333333333333</v>
       </c>
       <c r="C62" s="5">
-        <v>3.801388888888889</v>
+        <v>3.8013888888888889</v>
       </c>
       <c r="D62" s="6">
-        <f>C62-B62</f>
-        <v>0.09305555555555556</v>
+        <f t="shared" ref="D62:D67" si="5">C62-B62</f>
+        <v>9.3055555555555891E-2</v>
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>45410</v>
       </c>
@@ -2182,12 +2315,12 @@
         <v>3.802083333333333</v>
       </c>
       <c r="D63" s="6">
-        <f>C63-B63</f>
-        <v>0.09375</v>
+        <f t="shared" si="5"/>
+        <v>9.375E-2</v>
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>45414</v>
       </c>
@@ -2198,12 +2331,12 @@
         <v>3.739583333333333</v>
       </c>
       <c r="D64" s="7">
-        <f>C64-B64</f>
-        <v>0.02083333333333333</v>
+        <f t="shared" si="5"/>
+        <v>2.0833333333333037E-2</v>
       </c>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>45419</v>
       </c>
@@ -2211,15 +2344,15 @@
         <v>45419.729166666664</v>
       </c>
       <c r="C65" s="5">
-        <v>45419.76875</v>
+        <v>45419.768750000003</v>
       </c>
       <c r="D65" s="7">
-        <f>C65-B65</f>
-        <v>0.03958333333885228</v>
+        <f t="shared" si="5"/>
+        <v>3.9583333338669036E-2</v>
       </c>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>45421</v>
       </c>
@@ -2230,12 +2363,12 @@
         <v>45421.78125</v>
       </c>
       <c r="D66" s="7">
-        <f>C66-B66</f>
-        <v>0.06111111111111111</v>
+        <f t="shared" si="5"/>
+        <v>6.1111111113859806E-2</v>
       </c>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>45424</v>
       </c>
@@ -2246,14 +2379,23 @@
         <v>45424.747916666667</v>
       </c>
       <c r="D67" s="7">
-        <f>C67-B67</f>
-        <v>0.03958333333333333</v>
+        <f t="shared" si="5"/>
+        <v>3.9583333331393078E-2</v>
       </c>
       <c r="E67" s="3"/>
     </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D68" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F62DE1-FAB7-5B4F-B5F1-753520FBE059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6DB233-9D50-7F48-B167-45F7A273CB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="700" windowWidth="26240" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31800" yWindow="1900" windowWidth="29440" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (paid)</t>
     </r>
@@ -177,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,11 +201,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -217,8 +246,15 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1349,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2284,7 +2320,7 @@
       <c r="D61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2369,28 +2405,149 @@
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="A67" s="13">
         <v>45424</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="14">
         <v>45424.708333333336</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="14">
         <v>45424.747916666667</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="15">
         <f t="shared" si="5"/>
         <v>3.9583333331393078E-2</v>
       </c>
-      <c r="E67" s="3"/>
+      <c r="E67" s="16"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D68" s="12" t="s">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" s="18" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="69" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="19">
+        <v>45463</v>
+      </c>
+      <c r="B69" s="20">
+        <v>0.875</v>
+      </c>
+      <c r="C69" s="20">
+        <v>0.95694444444444438</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6DB233-9D50-7F48-B167-45F7A273CB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7847BB-9608-C948-AE33-6367E8077202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31800" yWindow="1900" windowWidth="29440" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2445,9 +2445,15 @@
       <c r="E69" s="17"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="A70" s="19">
+        <v>45468</v>
+      </c>
+      <c r="B70" s="20">
+        <v>0.875</v>
+      </c>
+      <c r="C70" s="20">
+        <v>0.92222222222222217</v>
+      </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
     </row>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7847BB-9608-C948-AE33-6367E8077202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B6D9F1-B230-7D42-91C8-5FE9C7352D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31800" yWindow="1900" windowWidth="29440" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="700" windowWidth="26040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2458,9 +2458,15 @@
       <c r="E70" s="17"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="19">
+        <v>45490</v>
+      </c>
+      <c r="B71" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C71" s="20">
+        <v>0.84861111111111109</v>
+      </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
     </row>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B6D9F1-B230-7D42-91C8-5FE9C7352D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32AA583-A55B-3546-9A83-5834F566C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="700" windowWidth="26040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2471,9 +2471,15 @@
       <c r="E71" s="17"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
+      <c r="A72" s="19">
+        <v>45498</v>
+      </c>
+      <c r="B72" s="20">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C72" s="20">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
     </row>

--- a/record/Time and Payment.xlsx
+++ b/record/Time and Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/Fortune500_SDG_Analysis/record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32AA583-A55B-3546-9A83-5834F566C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0A3D46-3AF1-E743-8042-1F96286ADAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="700" windowWidth="26040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -255,6 +255,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1388,7 +1389,7 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2484,9 +2485,15 @@
       <c r="E72" s="17"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="19">
+        <v>45504</v>
+      </c>
+      <c r="B73" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C73" s="21">
+        <v>0.90763888888888899</v>
+      </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
     </row>
